--- a/VT_REG1_PRI_V12.xlsx
+++ b/VT_REG1_PRI_V12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_models\DemoS_012\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\DemoS_012\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD12B5F-E7EE-4A71-9B9C-666A4012B1DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E408947-8079-4D7B-94F3-E23A347936CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB1" sheetId="133" r:id="rId1"/>
@@ -7058,9 +7058,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="General_)"/>
-    <numFmt numFmtId="165" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="General_)"/>
+    <numFmt numFmtId="166" formatCode="\Te\x\t"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -7590,10 +7590,10 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -7608,28 +7608,22 @@
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -7648,7 +7642,7 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7660,13 +7654,10 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1"/>
@@ -7675,17 +7666,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="17" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="6" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="15" fillId="6" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -7701,43 +7691,42 @@
     <xf numFmtId="2" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="15" fillId="6" borderId="19" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -7753,18 +7742,17 @@
     <xf numFmtId="0" fontId="27" fillId="5" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="9" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="9" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="15" fillId="6" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -7777,7 +7765,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7788,31 +7776,29 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="21" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="21" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11419,7 +11405,7 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AA22"/>
+  <dimension ref="B1:AA22"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="T27" sqref="T27"/>
@@ -11448,8 +11434,8 @@
     <col min="31" max="45" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="X1" s="24" t="s">
+    <row r="1" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="X1" s="18" t="s">
         <v>80</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -11462,999 +11448,994 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="6"/>
-      <c r="D2" s="73" t="s">
+    <row r="2" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D2" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="73" t="s">
+      <c r="H2" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="73" t="s">
+      <c r="I2" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="J2" s="73" t="s">
+      <c r="J2" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="K2" s="73" t="s">
+      <c r="K2" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="L2" s="73" t="s">
+      <c r="L2" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="M2" s="73" t="s">
+      <c r="M2" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="N2" s="73" t="s">
+      <c r="N2" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="73" t="s">
+      <c r="O2" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="P2" s="73" t="s">
+      <c r="P2" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="Q2" s="73" t="s">
+      <c r="Q2" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="R2" s="73" t="s">
+      <c r="R2" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="S2" s="73" t="s">
+      <c r="S2" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="73" t="s">
+      <c r="T2" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="U2" s="73" t="s">
+      <c r="U2" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="V2" s="32"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="45" t="s">
+      <c r="V2" s="26"/>
+      <c r="Y2" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="Z2" s="14" t="s">
+      <c r="Z2" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="AA2" s="14" t="s">
+      <c r="AA2" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C3" s="85" t="s">
+    <row r="3" spans="2:27" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C3" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="83" t="s">
+      <c r="G3" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="83" t="s">
+      <c r="H3" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="83" t="s">
+      <c r="I3" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="J3" s="83" t="s">
+      <c r="J3" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="K3" s="83" t="s">
+      <c r="K3" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="L3" s="83" t="s">
+      <c r="L3" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="M3" s="83" t="s">
+      <c r="M3" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="N3" s="83" t="s">
+      <c r="N3" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="83" t="s">
+      <c r="O3" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="P3" s="83" t="s">
+      <c r="P3" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="Q3" s="83" t="s">
+      <c r="Q3" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="R3" s="83" t="s">
+      <c r="R3" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="S3" s="83" t="s">
+      <c r="S3" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="T3" s="83" t="s">
+      <c r="T3" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="U3" s="84" t="s">
+      <c r="U3" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="V3" s="74" t="s">
+      <c r="V3" s="63" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C4" s="75" t="s">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C4" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="70"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B5" s="47" t="s">
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="59"/>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B5" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="78">
+      <c r="D5" s="67">
         <f>[2]EB1!D5</f>
         <v>5263.9327000000003</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="36">
         <f>[2]EB1!E5</f>
         <v>3159.7988000000005</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="36">
         <f>[2]EB1!F5</f>
         <v>2686.252</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="36">
         <f>[2]EB1!G5</f>
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="36">
         <f>[2]EB1!H5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="36">
         <f>[2]EB1!I5</f>
         <v>0</v>
       </c>
-      <c r="J5" s="46">
+      <c r="J5" s="36">
         <f>[2]EB1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="46">
+      <c r="K5" s="36">
         <f>[2]EB1!K5</f>
         <v>0</v>
       </c>
-      <c r="L5" s="46">
+      <c r="L5" s="36">
         <f>[2]EB1!L5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="46">
+      <c r="M5" s="36">
         <f>[2]EB1!M5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="46">
+      <c r="N5" s="36">
         <f>[2]EB1!N5</f>
         <v>4455</v>
       </c>
-      <c r="O5" s="46">
+      <c r="O5" s="36">
         <f>[2]EB1!O5</f>
         <v>2261.9700000000003</v>
       </c>
-      <c r="P5" s="46">
+      <c r="P5" s="36">
         <f>[2]EB1!P5</f>
         <v>502.66000000000008</v>
       </c>
-      <c r="Q5" s="46">
+      <c r="Q5" s="36">
         <f>[2]EB1!Q5</f>
         <v>263.8965</v>
       </c>
-      <c r="R5" s="46">
+      <c r="R5" s="36">
         <f>[2]EB1!R5</f>
         <v>125.66500000000008</v>
       </c>
-      <c r="S5" s="46">
+      <c r="S5" s="36">
         <f>[2]EB1!S5</f>
         <v>0</v>
       </c>
-      <c r="T5" s="46">
+      <c r="T5" s="36">
         <f>[2]EB1!T5</f>
         <v>0</v>
       </c>
-      <c r="U5" s="46">
+      <c r="U5" s="36">
         <f>[2]EB1!U5</f>
         <v>0</v>
       </c>
-      <c r="V5" s="71">
+      <c r="V5" s="60">
         <f>SUM(D5:U5)</f>
         <v>18719.239000000001</v>
       </c>
-      <c r="X5" s="8"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B6" s="47" t="s">
+      <c r="X5" s="5"/>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B6" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="79">
+      <c r="D6" s="68">
         <f>[2]EB1!D6</f>
         <v>4200.7361500000006</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="36">
         <f>[2]EB1!E6</f>
         <v>5316.6916000000001</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="36">
         <f>[2]EB1!F6</f>
         <v>13824.328000000001</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="36">
         <f>[2]EB1!G6</f>
         <v>2204.8490000000002</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="36">
         <f>[2]EB1!H6</f>
         <v>604.98850000000004</v>
       </c>
-      <c r="I6" s="46">
+      <c r="I6" s="36">
         <f>[2]EB1!I6</f>
         <v>326.12950000000001</v>
       </c>
-      <c r="J6" s="46">
+      <c r="J6" s="36">
         <f>[2]EB1!J6</f>
         <v>660</v>
       </c>
-      <c r="K6" s="46">
+      <c r="K6" s="36">
         <f>[2]EB1!K6</f>
         <v>683.1</v>
       </c>
-      <c r="L6" s="46">
+      <c r="L6" s="36">
         <f>[2]EB1!L6</f>
         <v>1079.56</v>
       </c>
-      <c r="M6" s="46">
+      <c r="M6" s="36">
         <f>[2]EB1!M6</f>
         <v>597.03499999999997</v>
       </c>
-      <c r="N6" s="46">
+      <c r="N6" s="36">
         <f>[2]EB1!N6</f>
         <v>0</v>
       </c>
-      <c r="O6" s="46">
+      <c r="O6" s="36">
         <f>[2]EB1!O6</f>
         <v>84.764250000000004</v>
       </c>
-      <c r="P6" s="46">
+      <c r="P6" s="36">
         <f>[2]EB1!P6</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="46">
+      <c r="Q6" s="36">
         <f>[2]EB1!Q6</f>
         <v>0</v>
       </c>
-      <c r="R6" s="46">
+      <c r="R6" s="36">
         <f>[2]EB1!R6</f>
         <v>0</v>
       </c>
-      <c r="S6" s="46">
+      <c r="S6" s="36">
         <f>[2]EB1!S6</f>
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="T6" s="46">
+      <c r="T6" s="36">
         <f>[2]EB1!T6</f>
         <v>7.6499999999999999E-2</v>
       </c>
-      <c r="U6" s="46">
+      <c r="U6" s="36">
         <f>[2]EB1!U6</f>
         <v>583.76</v>
       </c>
-      <c r="V6" s="71">
+      <c r="V6" s="60">
         <f>SUM(D6:U6)</f>
         <v>30166.022000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B7" s="47" t="s">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B7" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="80">
+      <c r="D7" s="69">
         <f>[2]EB1!D7</f>
         <v>-745.59484999999995</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="36">
         <f>[2]EB1!E7</f>
         <v>-1006.5324000000001</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="36">
         <f>[2]EB1!F7</f>
         <v>-1648.4854999999998</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="36">
         <f>[2]EB1!G7</f>
         <v>-1683.1424999999999</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="36">
         <f>[2]EB1!H7</f>
         <v>-295.38850000000002</v>
       </c>
-      <c r="I7" s="46">
+      <c r="I7" s="36">
         <f>[2]EB1!I7</f>
         <v>-194.51650000000001</v>
       </c>
-      <c r="J7" s="46">
+      <c r="J7" s="36">
         <f>[2]EB1!J7</f>
         <v>-1500.6420000000001</v>
       </c>
-      <c r="K7" s="46">
+      <c r="K7" s="36">
         <f>[2]EB1!K7</f>
         <v>-400.84</v>
       </c>
-      <c r="L7" s="46">
+      <c r="L7" s="36">
         <f>[2]EB1!L7</f>
         <v>-1239.28</v>
       </c>
-      <c r="M7" s="46">
+      <c r="M7" s="36">
         <f>[2]EB1!M7</f>
         <v>-453.036</v>
       </c>
-      <c r="N7" s="46">
+      <c r="N7" s="36">
         <f>[2]EB1!N7</f>
         <v>0</v>
       </c>
-      <c r="O7" s="46">
+      <c r="O7" s="36">
         <f>[2]EB1!O7</f>
         <v>-54.302999999999997</v>
       </c>
-      <c r="P7" s="46">
+      <c r="P7" s="36">
         <f>[2]EB1!P7</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="46">
+      <c r="Q7" s="36">
         <f>[2]EB1!Q7</f>
         <v>0</v>
       </c>
-      <c r="R7" s="46">
+      <c r="R7" s="36">
         <f>[2]EB1!R7</f>
         <v>0</v>
       </c>
-      <c r="S7" s="46">
+      <c r="S7" s="36">
         <f>[2]EB1!S7</f>
         <v>0</v>
       </c>
-      <c r="T7" s="46">
+      <c r="T7" s="36">
         <f>[2]EB1!T7</f>
         <v>-6.4500000000000002E-2</v>
       </c>
-      <c r="U7" s="46">
+      <c r="U7" s="36">
         <f>[2]EB1!U7</f>
         <v>-563.40200000000004</v>
       </c>
-      <c r="V7" s="71">
+      <c r="V7" s="60">
         <f>SUM(D7:U7)</f>
         <v>-9785.22775</v>
       </c>
-      <c r="X7" s="8"/>
-    </row>
-    <row r="8" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="69" t="s">
+      <c r="X7" s="5"/>
+    </row>
+    <row r="8" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="B8" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="81">
+      <c r="D8" s="70">
         <f>SUM(D5:D7)</f>
         <v>8719.0740000000023</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="41">
         <f t="shared" ref="E8:U8" si="0">SUM(E5:E7)</f>
         <v>7469.9580000000005</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="41">
         <f t="shared" si="0"/>
         <v>14862.094500000003</v>
       </c>
-      <c r="G8" s="51">
+      <c r="G8" s="41">
         <f t="shared" si="0"/>
         <v>521.77050000000008</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="41">
         <f t="shared" si="0"/>
         <v>309.60000000000002</v>
       </c>
-      <c r="I8" s="51">
+      <c r="I8" s="41">
         <f t="shared" si="0"/>
         <v>131.613</v>
       </c>
-      <c r="J8" s="51">
+      <c r="J8" s="41">
         <f t="shared" si="0"/>
         <v>-840.64200000000005</v>
       </c>
-      <c r="K8" s="51">
+      <c r="K8" s="41">
         <f t="shared" si="0"/>
         <v>282.26000000000005</v>
       </c>
-      <c r="L8" s="51">
+      <c r="L8" s="41">
         <f t="shared" si="0"/>
         <v>-159.72000000000003</v>
       </c>
-      <c r="M8" s="51">
+      <c r="M8" s="41">
         <f t="shared" si="0"/>
         <v>143.99899999999997</v>
       </c>
-      <c r="N8" s="51">
+      <c r="N8" s="41">
         <f t="shared" si="0"/>
         <v>4455</v>
       </c>
-      <c r="O8" s="51">
+      <c r="O8" s="41">
         <f t="shared" si="0"/>
         <v>2292.4312500000005</v>
       </c>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51">
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41">
         <f t="shared" si="0"/>
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="T8" s="51">
+      <c r="T8" s="41">
         <f t="shared" si="0"/>
         <v>1.1999999999999997E-2</v>
       </c>
-      <c r="U8" s="51">
+      <c r="U8" s="41">
         <f t="shared" si="0"/>
         <v>20.357999999999947</v>
       </c>
-      <c r="V8" s="52">
+      <c r="V8" s="42">
         <f>SUM(V5:V7)</f>
         <v>39100.03325</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B9" s="86"/>
-      <c r="C9" s="87" t="s">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B9" s="75"/>
+      <c r="C9" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="88"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="88"/>
-      <c r="U9" s="88"/>
-      <c r="V9" s="89"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B10" s="47" t="s">
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="78"/>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B10" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="90" t="s">
+      <c r="C10" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="D10" s="91">
+      <c r="D10" s="43">
         <f>[2]EB1!D10</f>
         <v>-37.464700000000001</v>
       </c>
-      <c r="E10" s="91">
+      <c r="E10" s="43">
         <f>[2]EB1!E10</f>
         <v>-317.19200000000001</v>
       </c>
-      <c r="F10" s="91">
+      <c r="F10" s="43">
         <f>[2]EB1!F10</f>
         <v>0</v>
       </c>
-      <c r="G10" s="91">
+      <c r="G10" s="43">
         <f>[2]EB1!G10</f>
         <v>-16.283999999999999</v>
       </c>
-      <c r="H10" s="91">
+      <c r="H10" s="43">
         <f>[2]EB1!H10</f>
         <v>-2.1499999999999998E-2</v>
       </c>
-      <c r="I10" s="91">
+      <c r="I10" s="43">
         <f>[2]EB1!I10</f>
         <v>-528.76099999999997</v>
       </c>
-      <c r="J10" s="91">
+      <c r="J10" s="43">
         <f>[2]EB1!J10</f>
         <v>-164.50800000000001</v>
       </c>
-      <c r="K10" s="91">
+      <c r="K10" s="43">
         <f>[2]EB1!K10</f>
         <v>-0.61599999999999999</v>
       </c>
-      <c r="L10" s="91">
+      <c r="L10" s="43">
         <f>[2]EB1!L10</f>
         <v>-205.88</v>
       </c>
-      <c r="M10" s="91">
+      <c r="M10" s="43">
         <f>[2]EB1!M10</f>
         <v>0</v>
       </c>
-      <c r="N10" s="91">
+      <c r="N10" s="43">
         <f>[2]EB1!N10</f>
         <v>0</v>
       </c>
-      <c r="O10" s="91">
+      <c r="O10" s="43">
         <f>[2]EB1!O10</f>
         <v>-3.21225</v>
       </c>
-      <c r="P10" s="91">
+      <c r="P10" s="43">
         <f>[2]EB1!P10</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="91">
+      <c r="Q10" s="43">
         <f>[2]EB1!Q10</f>
         <v>0</v>
       </c>
-      <c r="R10" s="91">
+      <c r="R10" s="43">
         <f>[2]EB1!R10</f>
         <v>0</v>
       </c>
-      <c r="S10" s="91">
+      <c r="S10" s="43">
         <f>[2]EB1!S10</f>
         <v>-0.76</v>
       </c>
-      <c r="T10" s="91">
+      <c r="T10" s="43">
         <f>[2]EB1!T10</f>
         <v>0</v>
       </c>
-      <c r="U10" s="91">
+      <c r="U10" s="43">
         <f>[2]EB1!U10</f>
         <v>0</v>
       </c>
-      <c r="V10" s="92">
+      <c r="V10" s="80">
         <f>SUM(D10:U10)</f>
         <v>-1274.6994499999998</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B11" s="47" t="s">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B11" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="93" t="s">
+      <c r="C11" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="D11" s="91">
+      <c r="D11" s="43">
         <f>[2]EB1!D11</f>
         <v>-6238.7780000000012</v>
       </c>
-      <c r="E11" s="91">
+      <c r="E11" s="43">
         <f>[2]EB1!E11</f>
         <v>-2254.2175999999999</v>
       </c>
-      <c r="F11" s="91">
+      <c r="F11" s="43">
         <f>[2]EB1!F11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="91">
+      <c r="G11" s="43">
         <f>[2]EB1!G11</f>
         <v>-30.160499999999999</v>
       </c>
-      <c r="H11" s="91">
+      <c r="H11" s="43">
         <f>[2]EB1!H11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="91">
+      <c r="I11" s="43">
         <f>[2]EB1!I11</f>
         <v>-23.835000000000001</v>
       </c>
-      <c r="J11" s="91">
+      <c r="J11" s="43">
         <f>[2]EB1!J11</f>
         <v>0</v>
       </c>
-      <c r="K11" s="91">
+      <c r="K11" s="43">
         <f>[2]EB1!K11</f>
         <v>0</v>
       </c>
-      <c r="L11" s="91">
+      <c r="L11" s="43">
         <f>[2]EB1!L11</f>
         <v>-524.78</v>
       </c>
-      <c r="M11" s="91">
+      <c r="M11" s="43">
         <f>[2]EB1!M11</f>
         <v>-33.529000000000003</v>
       </c>
-      <c r="N11" s="91">
+      <c r="N11" s="43">
         <f>[2]EB1!N11</f>
         <v>-4455</v>
       </c>
-      <c r="O11" s="91">
+      <c r="O11" s="43">
         <f>[2]EB1!O11</f>
         <v>-527.25918750000005</v>
       </c>
-      <c r="P11" s="91">
+      <c r="P11" s="43">
         <f>[2]EB1!P11</f>
         <v>-502.66000000000008</v>
       </c>
-      <c r="Q11" s="91">
+      <c r="Q11" s="43">
         <f>[2]EB1!Q11</f>
         <v>-263.8965</v>
       </c>
-      <c r="R11" s="91">
+      <c r="R11" s="43">
         <f>[2]EB1!R11</f>
         <v>-68</v>
       </c>
-      <c r="S11" s="91">
+      <c r="S11" s="43">
         <f>[2]EB1!S11</f>
         <v>-16.474499999999999</v>
       </c>
-      <c r="T11" s="91">
+      <c r="T11" s="43">
         <f>[2]EB1!T11</f>
         <v>868.77949999999998</v>
       </c>
-      <c r="U11" s="91">
+      <c r="U11" s="43">
         <f>[2]EB1!U11</f>
         <v>5790.5</v>
       </c>
-      <c r="V11" s="92">
+      <c r="V11" s="80">
         <f>SUM(D11:U11)</f>
         <v>-8279.3107875000023</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B12" s="47" t="s">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B12" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="93" t="s">
+      <c r="C12" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="91">
+      <c r="D12" s="43">
         <f>[2]EB1!D12</f>
         <v>-104.9074</v>
       </c>
-      <c r="E12" s="91">
+      <c r="E12" s="43">
         <f>[2]EB1!E12</f>
         <v>-120.5204</v>
       </c>
-      <c r="F12" s="91">
+      <c r="F12" s="43">
         <f>[2]EB1!F12</f>
         <v>0</v>
       </c>
-      <c r="G12" s="91">
+      <c r="G12" s="43">
         <f>[2]EB1!G12</f>
         <v>-7.6189999999999998</v>
       </c>
-      <c r="H12" s="91">
+      <c r="H12" s="43">
         <f>[2]EB1!H12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="91">
+      <c r="I12" s="43">
         <f>[2]EB1!I12</f>
         <v>-0.23350000000000001</v>
       </c>
-      <c r="J12" s="91">
+      <c r="J12" s="43">
         <f>[2]EB1!J12</f>
         <v>0</v>
       </c>
-      <c r="K12" s="91">
+      <c r="K12" s="43">
         <f>[2]EB1!K12</f>
         <v>0</v>
       </c>
-      <c r="L12" s="91">
+      <c r="L12" s="43">
         <f>[2]EB1!L12</f>
         <v>-15.2</v>
       </c>
-      <c r="M12" s="91">
+      <c r="M12" s="43">
         <f>[2]EB1!M12</f>
         <v>-1.772</v>
       </c>
-      <c r="N12" s="91">
+      <c r="N12" s="43">
         <f>[2]EB1!N12</f>
         <v>0</v>
       </c>
-      <c r="O12" s="91">
+      <c r="O12" s="43">
         <f>[2]EB1!O12</f>
         <v>-105.15525</v>
       </c>
-      <c r="P12" s="91">
+      <c r="P12" s="43">
         <f>[2]EB1!P12</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="91">
+      <c r="Q12" s="43">
         <f>[2]EB1!Q12</f>
         <v>0</v>
       </c>
-      <c r="R12" s="91">
+      <c r="R12" s="43">
         <f>[2]EB1!R12</f>
         <v>0</v>
       </c>
-      <c r="S12" s="91">
+      <c r="S12" s="43">
         <f>[2]EB1!S12</f>
         <v>-0.78449999999999998</v>
       </c>
-      <c r="T12" s="91">
+      <c r="T12" s="43">
         <f>[2]EB1!T12</f>
         <v>329.37150000000003</v>
       </c>
-      <c r="U12" s="91">
+      <c r="U12" s="43">
         <f>[2]EB1!U12</f>
         <v>0</v>
       </c>
-      <c r="V12" s="92">
+      <c r="V12" s="80">
         <f>SUM(D12:U12)</f>
         <v>-26.820549999999912</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="47" t="s">
+    <row r="13" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="B13" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="93" t="s">
+      <c r="C13" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="D13" s="91">
+      <c r="D13" s="43">
         <f>[2]EB1!D13</f>
         <v>0</v>
       </c>
-      <c r="E13" s="91">
+      <c r="E13" s="43">
         <f>[2]EB1!E13</f>
         <v>0</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="39">
         <f>[2]EB1!F13</f>
         <v>-15868.2305</v>
       </c>
-      <c r="G13" s="49">
+      <c r="G13" s="39">
         <f>[2]EB1!G13</f>
         <v>5701.34</v>
       </c>
-      <c r="H13" s="49">
+      <c r="H13" s="39">
         <f>[2]EB1!H13</f>
         <v>969.47799999999995</v>
       </c>
-      <c r="I13" s="49">
+      <c r="I13" s="39">
         <f>[2]EB1!I13</f>
         <v>1086.3040000000001</v>
       </c>
-      <c r="J13" s="49">
+      <c r="J13" s="39">
         <f>[2]EB1!J13</f>
         <v>3354.9119999999998</v>
       </c>
-      <c r="K13" s="49">
+      <c r="K13" s="39">
         <f>[2]EB1!K13</f>
         <v>970.28800000000001</v>
       </c>
-      <c r="L13" s="49">
+      <c r="L13" s="39">
         <f>[2]EB1!L13</f>
         <v>2285.1019999999999</v>
       </c>
-      <c r="M13" s="49">
+      <c r="M13" s="39">
         <f>[2]EB1!M13</f>
         <v>1299.9449999999999</v>
       </c>
-      <c r="N13" s="91">
+      <c r="N13" s="43">
         <f>[2]EB1!N13</f>
         <v>0</v>
       </c>
-      <c r="O13" s="91">
+      <c r="O13" s="43">
         <f>[2]EB1!O13</f>
         <v>0</v>
       </c>
-      <c r="P13" s="91">
+      <c r="P13" s="43">
         <f>[2]EB1!P13</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="91">
+      <c r="Q13" s="43">
         <f>[2]EB1!Q13</f>
         <v>0</v>
       </c>
-      <c r="R13" s="91">
+      <c r="R13" s="43">
         <f>[2]EB1!R13</f>
         <v>0</v>
       </c>
-      <c r="S13" s="91">
+      <c r="S13" s="43">
         <f>[2]EB1!S13</f>
         <v>0</v>
       </c>
-      <c r="T13" s="91">
+      <c r="T13" s="43">
         <f>[2]EB1!T13</f>
         <v>0</v>
       </c>
-      <c r="U13" s="91">
+      <c r="U13" s="43">
         <f>[2]EB1!U13</f>
         <v>0</v>
       </c>
-      <c r="V13" s="92">
+      <c r="V13" s="80">
         <f>SUM(D13:U13)</f>
         <v>-200.86150000000021</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="86"/>
-      <c r="C14" s="50" t="s">
+    <row r="14" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="B14" s="75"/>
+      <c r="C14" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="D14" s="94">
+      <c r="D14" s="82">
         <f>SUM(D10:D13)</f>
         <v>-6381.1501000000017</v>
       </c>
-      <c r="E14" s="51">
+      <c r="E14" s="41">
         <f t="shared" ref="E14:U14" si="1">SUM(E10:E13)</f>
         <v>-2691.93</v>
       </c>
-      <c r="F14" s="51">
+      <c r="F14" s="41">
         <f t="shared" si="1"/>
         <v>-15868.2305</v>
       </c>
-      <c r="G14" s="51">
+      <c r="G14" s="41">
         <f t="shared" si="1"/>
         <v>5647.2764999999999</v>
       </c>
-      <c r="H14" s="51">
+      <c r="H14" s="41">
         <f t="shared" si="1"/>
         <v>969.45650000000001</v>
       </c>
-      <c r="I14" s="51">
+      <c r="I14" s="41">
         <f t="shared" si="1"/>
         <v>533.47450000000003</v>
       </c>
-      <c r="J14" s="51">
+      <c r="J14" s="41">
         <f t="shared" si="1"/>
         <v>3190.404</v>
       </c>
-      <c r="K14" s="51">
+      <c r="K14" s="41">
         <f t="shared" si="1"/>
         <v>969.67200000000003</v>
       </c>
-      <c r="L14" s="51">
+      <c r="L14" s="41">
         <f t="shared" si="1"/>
         <v>1539.2419999999997</v>
       </c>
-      <c r="M14" s="51">
+      <c r="M14" s="41">
         <f t="shared" si="1"/>
         <v>1264.644</v>
       </c>
-      <c r="N14" s="51">
+      <c r="N14" s="41">
         <f t="shared" si="1"/>
         <v>-4455</v>
       </c>
-      <c r="O14" s="51">
+      <c r="O14" s="41">
         <f t="shared" si="1"/>
         <v>-635.62668750000012</v>
       </c>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51">
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41">
         <f t="shared" si="1"/>
         <v>-18.019000000000002</v>
       </c>
-      <c r="T14" s="51">
+      <c r="T14" s="41">
         <f t="shared" si="1"/>
         <v>1198.1510000000001</v>
       </c>
-      <c r="U14" s="51">
+      <c r="U14" s="41">
         <f t="shared" si="1"/>
         <v>5790.5</v>
       </c>
-      <c r="V14" s="52">
+      <c r="V14" s="42">
         <f>SUM(V10:V13)</f>
         <v>-9781.6922875000037</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="D15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="D16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-    </row>
-    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="C17" s="49" t="s">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="D15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="D16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C17" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D20" s="25" t="s">
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D20" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C21" s="26" t="s">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C21" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="21">
         <v>0.75</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="21">
         <v>0.5</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="21">
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C22" s="28" t="s">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C22" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="23">
         <v>0.25</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="23">
         <v>0.5</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="23">
         <v>0.2</v>
       </c>
     </row>
@@ -12474,15 +12455,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3" style="33" customWidth="1"/>
-    <col min="2" max="2" width="14" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="33" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="33" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="33" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="27" customWidth="1"/>
+    <col min="2" max="2" width="14" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="27" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="27" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2" style="27" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" customWidth="1"/>
     <col min="11" max="11" width="7.5703125" customWidth="1"/>
     <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -12492,146 +12473,137 @@
     <col min="16" max="16" width="13.5703125" customWidth="1"/>
     <col min="17" max="17" width="13.7109375" customWidth="1"/>
     <col min="18" max="18" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.85546875" style="33"/>
+    <col min="19" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="24" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="14" t="str">
+      <c r="E2" s="9" t="str">
         <f>'EB1'!Z2</f>
         <v>PJ</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="14" t="str">
+      <c r="G2" s="9" t="str">
         <f>'EB1'!Y2</f>
         <v>M€2005</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="106" t="s">
+      <c r="J2" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="106"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J3" s="108" t="s">
+      <c r="J3" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="109" t="s">
+      <c r="K3" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="108" t="s">
+      <c r="L3" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="108" t="s">
+      <c r="M3" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="108" t="s">
+      <c r="N3" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="108" t="s">
+      <c r="O3" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="108" t="s">
+      <c r="P3" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="108" t="s">
+      <c r="Q3" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="108" t="s">
+      <c r="R3" s="96" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:18" s="35" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="40"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="H4" s="97"/>
-      <c r="J4" s="110" t="s">
+    <row r="4" spans="2:18" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="H4" s="85"/>
+      <c r="J4" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="110" t="s">
+      <c r="K4" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="110" t="s">
+      <c r="L4" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="110" t="s">
+      <c r="M4" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="110" t="s">
+      <c r="N4" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="110" t="s">
+      <c r="O4" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="110" t="s">
+      <c r="P4" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="110" t="s">
+      <c r="Q4" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="110" t="s">
+      <c r="R4" s="98" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:18" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
+    <row r="5" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="30"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="J7" s="2"/>
@@ -12643,385 +12615,282 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="106" t="s">
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="J8" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="106"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="107"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="95"/>
     </row>
     <row r="9" spans="2:18" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="65" t="s">
+      <c r="F9" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="65" t="s">
+      <c r="G9" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="98"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="108" t="s">
+      <c r="H9" s="86"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="109" t="s">
+      <c r="K9" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="108" t="s">
+      <c r="L9" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="M9" s="108" t="s">
+      <c r="M9" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="N9" s="108" t="s">
+      <c r="N9" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="108" t="s">
+      <c r="O9" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="108" t="s">
+      <c r="P9" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="Q9" s="108" t="s">
+      <c r="Q9" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="108" t="s">
+      <c r="R9" s="96" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="H10" s="99"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="110" t="s">
+      <c r="H10" s="87"/>
+      <c r="J10" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="K10" s="110" t="s">
+      <c r="K10" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="110" t="s">
+      <c r="L10" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="110" t="s">
+      <c r="M10" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="110" t="s">
+      <c r="N10" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="110" t="s">
+      <c r="O10" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="110" t="s">
+      <c r="P10" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="Q10" s="110" t="s">
+      <c r="Q10" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="R10" s="110" t="s">
+      <c r="R10" s="98" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="17" t="str">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="11" t="str">
         <f>$F$2</f>
         <v>Pja</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="110" t="s">
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="88"/>
+      <c r="J11" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="110"/>
-      <c r="N11" s="110"/>
-      <c r="O11" s="110"/>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="110"/>
-      <c r="R11" s="110"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="98"/>
+      <c r="R11" s="98"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="33" t="str">
+      <c r="B12" s="27" t="str">
         <f>L12</f>
         <v>REFEOIL00</v>
       </c>
-      <c r="C12" s="33" t="str">
+      <c r="C12" s="27" t="str">
         <f>'EB1'!F2</f>
         <v>OIL</v>
       </c>
-      <c r="D12" s="33" t="str">
+      <c r="D12" s="27" t="str">
         <f>'EB1'!G2</f>
         <v>DSL</v>
       </c>
-      <c r="E12" s="95">
+      <c r="E12" s="83">
         <f>'EB1'!G$13/SUM('EB1'!$G$13:$M$13)</f>
         <v>0.36389900563393895</v>
       </c>
-      <c r="F12" s="57">
+      <c r="F12" s="47">
         <f>-SUM('EB1'!F13)/SUM('EB1'!G13:M13)</f>
         <v>1.0128203720739584</v>
       </c>
-      <c r="G12" s="55">
+      <c r="G12" s="45">
         <f>SUM('EB1'!G13:M13)</f>
         <v>15667.368999999999</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="111" t="s">
+      <c r="H12" s="5"/>
+      <c r="J12" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="K12" s="112"/>
-      <c r="L12" s="112" t="str">
+      <c r="K12" s="99"/>
+      <c r="L12" s="99" t="str">
         <f>$B$2&amp;$H$2&amp;'EB1'!F2&amp;"00"</f>
         <v>REFEOIL00</v>
       </c>
-      <c r="M12" s="115" t="str">
+      <c r="M12" s="101" t="str">
         <f>$D$2&amp;" "&amp;$H$1&amp;RIGHT(L12,2)</f>
         <v>Refinery Existing00</v>
       </c>
-      <c r="N12" s="112" t="str">
+      <c r="N12" s="99" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="O12" s="112" t="str">
+      <c r="O12" s="99" t="str">
         <f>$F$2</f>
         <v>Pja</v>
       </c>
-      <c r="P12" s="111"/>
-      <c r="Q12" s="111" t="s">
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="R12" s="112"/>
+      <c r="R12" s="99"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D13" s="33" t="str">
+      <c r="D13" s="27" t="str">
         <f>'EB1'!H2</f>
         <v>KER</v>
       </c>
-      <c r="E13" s="95">
+      <c r="E13" s="83">
         <f>'EB1'!H$13/SUM('EB1'!$G$13:$M$13)</f>
         <v>6.1878800454626431E-2</v>
       </c>
-      <c r="F13" s="38"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
+      <c r="F13" s="29"/>
+      <c r="M13" s="17"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36" t="str">
+      <c r="D14" s="27" t="str">
         <f>'EB1'!I2</f>
         <v>LPG</v>
       </c>
-      <c r="E14" s="95">
+      <c r="E14" s="83">
         <f>'EB1'!I$13/SUM('EB1'!$G$13:$M$13)</f>
         <v>6.9335444898246806E-2</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
+      <c r="F14" s="29"/>
+      <c r="M14" s="17"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36" t="str">
+      <c r="D15" s="27" t="str">
         <f>'EB1'!J2</f>
         <v>GSL</v>
       </c>
-      <c r="E15" s="95">
+      <c r="E15" s="83">
         <f>'EB1'!J$13/SUM('EB1'!$G$13:$M$13)</f>
         <v>0.21413371957984778</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
+      <c r="F15" s="29"/>
+      <c r="M15" s="17"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36" t="str">
+      <c r="D16" s="27" t="str">
         <f>'EB1'!K2</f>
         <v>NAP</v>
       </c>
-      <c r="E16" s="95">
+      <c r="E16" s="83">
         <f>'EB1'!K$13/SUM('EB1'!$G$13:$M$13)</f>
         <v>6.1930500264594526E-2</v>
       </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36" t="str">
+      <c r="F16" s="29"/>
+      <c r="M16" s="17"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D17" s="27" t="str">
         <f>'EB1'!L2</f>
         <v>HFO</v>
       </c>
-      <c r="E17" s="95">
+      <c r="E17" s="83">
         <f>'EB1'!L$13/SUM('EB1'!$G$13:$M$13)</f>
         <v>0.1458510359971735</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36" t="str">
+      <c r="F17" s="29"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D18" s="27" t="str">
         <f>'EB1'!M2</f>
         <v>OPP</v>
       </c>
-      <c r="E18" s="95">
+      <c r="E18" s="83">
         <f>'EB1'!M$13/SUM('EB1'!$G$13:$M$13)</f>
         <v>8.2971493171572083E-2</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E20" s="44"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="48"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E19" s="33"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E20" s="34"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B23" s="38"/>
       <c r="C23" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="56"/>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="46"/>
       <c r="C24" s="1" t="s">
         <v>116</v>
       </c>
@@ -13051,164 +12920,163 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="90" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
     </row>
     <row r="5" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="93" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="93" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="105" t="s">
+      <c r="E5" s="93" t="s">
         <v>144</v>
       </c>
-      <c r="F5" s="105" t="s">
+      <c r="F5" s="93" t="s">
         <v>145</v>
       </c>
-      <c r="G5" s="105" t="s">
+      <c r="G5" s="93" t="s">
         <v>146</v>
       </c>
-      <c r="H5" s="105" t="s">
+      <c r="H5" s="93" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="91" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="104">
+      <c r="C6" s="92">
         <v>1</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="K7" s="10"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
+      <c r="K7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="106"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="108" t="s">
+      <c r="D10" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="108" t="s">
+      <c r="E10" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="108" t="s">
+      <c r="F10" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="108" t="s">
+      <c r="G10" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="108" t="s">
+      <c r="H10" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="108" t="s">
+      <c r="I10" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="108" t="s">
+      <c r="J10" s="96" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="C11" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="110" t="s">
+      <c r="E11" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="110" t="s">
+      <c r="F11" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="110" t="s">
+      <c r="G11" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="110" t="s">
+      <c r="H11" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="110" t="s">
+      <c r="I11" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="110" t="s">
+      <c r="J11" s="98" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="111" t="str">
+      <c r="C12" s="99"/>
+      <c r="D12" s="95" t="str">
         <f>B6</f>
         <v>TOTCO2</v>
       </c>
-      <c r="E12" s="111" t="s">
+      <c r="E12" s="95" t="s">
         <v>150</v>
       </c>
-      <c r="F12" s="111" t="str">
+      <c r="F12" s="95" t="str">
         <f>'EB1'!AA2</f>
         <v>kt</v>
       </c>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13222,7 +13090,7 @@
   <dimension ref="B2:R62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:F17"/>
+      <selection activeCell="Y42" sqref="Y42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13237,17 +13105,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="52" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="52" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="26" t="s">
         <v>154</v>
       </c>
     </row>
@@ -13282,60 +13150,58 @@
       </c>
     </row>
     <row r="21" spans="2:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="52" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="23" spans="2:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="D23" s="116" t="s">
+      <c r="D23" s="102" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="117"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="117"/>
-      <c r="N23" s="117"/>
-      <c r="O23" s="117"/>
-      <c r="P23" s="117"/>
-      <c r="Q23" s="118"/>
-      <c r="R23" s="72"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="103"/>
+      <c r="L23" s="103"/>
+      <c r="M23" s="103"/>
+      <c r="N23" s="103"/>
+      <c r="O23" s="103"/>
+      <c r="P23" s="103"/>
+      <c r="Q23" s="104"/>
+      <c r="R23" s="61"/>
     </row>
     <row r="24" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="M24" s="63" t="s">
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="M24" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="N24" s="63"/>
-      <c r="O24" s="63"/>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="64"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="26"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="M25" s="63" t="s">
+      <c r="M25" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="N25" s="63"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="63"/>
-    </row>
-    <row r="62" spans="14:18" x14ac:dyDescent="0.2">
-      <c r="N62" s="64"/>
-      <c r="O62" s="64"/>
-      <c r="P62" s="64"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+    </row>
+    <row r="62" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N62" s="26"/>
+      <c r="O62" s="26"/>
+      <c r="P62" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13349,7 +13215,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:R32"/>
+  <dimension ref="B1:R26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:F65536"/>
@@ -13376,540 +13242,491 @@
     <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14" t="str">
+    <row r="2" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="str">
         <f>'EB1'!D2</f>
         <v>COA</v>
       </c>
-      <c r="D2" s="14" t="str">
+      <c r="D2" s="9" t="str">
         <f>'EB1'!D3</f>
         <v>Solid Fuels</v>
       </c>
-      <c r="E2" s="14" t="str">
+      <c r="E2" s="9" t="str">
         <f>'EB1'!Z2</f>
         <v>PJ</v>
       </c>
-      <c r="F2" s="14" t="str">
+      <c r="F2" s="9" t="str">
         <f>'EB1'!Y2</f>
         <v>M€2005</v>
       </c>
-      <c r="I2" s="106" t="s">
+      <c r="I2" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="I3" s="108" t="s">
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="I3" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="109" t="s">
+      <c r="J3" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="108" t="s">
+      <c r="K3" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="108" t="s">
+      <c r="L3" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="108" t="s">
+      <c r="M3" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="108" t="s">
+      <c r="N3" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="108" t="s">
+      <c r="O3" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="108" t="s">
+      <c r="P3" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="108" t="s">
+      <c r="Q3" s="96" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
-      <c r="I4" s="110" t="s">
+      <c r="I4" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="110" t="s">
+      <c r="J4" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="110" t="s">
+      <c r="K4" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="110" t="s">
+      <c r="L4" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="110" t="s">
+      <c r="M4" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="110" t="s">
+      <c r="N4" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="110" t="s">
+      <c r="O4" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="110" t="s">
+      <c r="P4" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="110" t="s">
+      <c r="Q4" s="98" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="I5" s="111" t="s">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="I5" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="112"/>
-      <c r="K5" s="111" t="str">
+      <c r="J5" s="99"/>
+      <c r="K5" s="95" t="str">
         <f>C2</f>
         <v>COA</v>
       </c>
-      <c r="L5" s="111" t="str">
+      <c r="L5" s="95" t="str">
         <f>D2</f>
         <v>Solid Fuels</v>
       </c>
-      <c r="M5" s="111" t="str">
+      <c r="M5" s="95" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="111"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="I7" s="106" t="s">
+      <c r="I7" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="106"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="113"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="J7" s="94"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G8" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="108" t="s">
+      <c r="I8" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="109" t="s">
+      <c r="J8" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="108" t="s">
+      <c r="K8" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="108" t="s">
+      <c r="L8" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="108" t="s">
+      <c r="M8" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="108" t="s">
+      <c r="N8" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="108" t="s">
+      <c r="O8" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="108" t="s">
+      <c r="P8" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="108" t="s">
+      <c r="Q8" s="96" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:18" s="5" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+    <row r="9" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="110" t="s">
+      <c r="I9" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="110" t="s">
+      <c r="J9" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="110" t="s">
+      <c r="K9" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="110" t="s">
+      <c r="L9" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="110" t="s">
+      <c r="M9" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="110" t="s">
+      <c r="N9" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="110" t="s">
+      <c r="O9" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="110" t="s">
+      <c r="P9" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" s="110" t="s">
+      <c r="Q9" s="98" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:18" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+    <row r="10" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17" t="str">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="F10" s="17" t="str">
+      <c r="F10" s="11" t="str">
         <f>$F$2&amp;"/"&amp;$E$2</f>
         <v>M€2005/PJ</v>
       </c>
-      <c r="G10" s="17" t="str">
+      <c r="G10" s="11" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="I10" s="110" t="s">
+      <c r="I10" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="114"/>
-      <c r="N10" s="114"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="114"/>
-    </row>
-    <row r="11" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="10" t="str">
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="100"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="str">
         <f>K11</f>
         <v>MINCOA1</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="str">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="str">
         <f>$K$5</f>
         <v>COA</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="48">
         <v>80000</v>
       </c>
-      <c r="F11" s="60">
+      <c r="F11" s="50">
         <v>2</v>
       </c>
-      <c r="G11" s="54">
+      <c r="G11" s="44">
         <f>'EB1'!$D$5*'EB1'!D21</f>
         <v>3947.949525</v>
       </c>
-      <c r="I11" s="111" t="str">
+      <c r="I11" s="95" t="str">
         <f>'EB1'!$B$5</f>
         <v>MIN</v>
       </c>
-      <c r="J11" s="112"/>
-      <c r="K11" s="112" t="str">
+      <c r="J11" s="99"/>
+      <c r="K11" s="99" t="str">
         <f>$I$11&amp;$C$2&amp;1</f>
         <v>MINCOA1</v>
       </c>
-      <c r="L11" s="115" t="str">
+      <c r="L11" s="101" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(K11,1)</f>
         <v>Domestic Supply of Solid Fuels Step 1</v>
       </c>
-      <c r="M11" s="112" t="str">
+      <c r="M11" s="99" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N11" s="112" t="str">
+      <c r="N11" s="99" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O11" s="112"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="112"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="10" t="str">
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="99"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="str">
         <f>K12</f>
         <v>MINCOA2</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="str">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="str">
         <f>$K$5</f>
         <v>COA</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="48">
         <v>160000</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="50">
         <v>2.5</v>
       </c>
-      <c r="G12" s="54">
+      <c r="G12" s="44">
         <f>'EB1'!$D$5*'EB1'!D22</f>
         <v>1315.9831750000001</v>
       </c>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112" t="str">
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99" t="str">
         <f>$I$11&amp;$C$2&amp;2</f>
         <v>MINCOA2</v>
       </c>
-      <c r="L12" s="115" t="str">
+      <c r="L12" s="101" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(K12,1)</f>
         <v>Domestic Supply of Solid Fuels Step 2</v>
       </c>
-      <c r="M12" s="112" t="str">
+      <c r="M12" s="99" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N12" s="112" t="str">
+      <c r="N12" s="99" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O12" s="112"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="112"/>
-      <c r="R12" s="5"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="10" t="str">
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="99"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="str">
         <f>K13</f>
         <v>MINCOA3</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="str">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="str">
         <f>$K$5</f>
         <v>COA</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="48">
         <v>3000000</v>
       </c>
-      <c r="F13" s="60">
+      <c r="F13" s="50">
         <v>3</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112" t="str">
+      <c r="G13" s="10"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99" t="str">
         <f>$I$11&amp;$C$2&amp;3</f>
         <v>MINCOA3</v>
       </c>
-      <c r="L13" s="115" t="str">
+      <c r="L13" s="101" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(K13,1)</f>
         <v>Domestic Supply of Solid Fuels Step 3</v>
       </c>
-      <c r="M13" s="112" t="str">
+      <c r="M13" s="99" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N13" s="112" t="str">
+      <c r="N13" s="99" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="112"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="10" t="str">
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="99"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="str">
         <f>K14</f>
         <v>IMPCOA1</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10" t="str">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="str">
         <f>$K$5</f>
         <v>COA</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="60">
+      <c r="E14" s="1"/>
+      <c r="F14" s="50">
         <v>2.75</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="I14" s="112" t="str">
+      <c r="G14" s="5"/>
+      <c r="I14" s="99" t="str">
         <f>'EB1'!$B$6</f>
         <v>IMP</v>
       </c>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112" t="str">
+      <c r="J14" s="99"/>
+      <c r="K14" s="99" t="str">
         <f>$I$14&amp;$C$2&amp;1</f>
         <v>IMPCOA1</v>
       </c>
-      <c r="L14" s="115" t="str">
+      <c r="L14" s="101" t="str">
         <f>"Import of "&amp;$D$2&amp; " Step "&amp;RIGHT(K14,1)</f>
         <v>Import of Solid Fuels Step 1</v>
       </c>
-      <c r="M14" s="112" t="str">
+      <c r="M14" s="99" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N14" s="112" t="str">
+      <c r="N14" s="99" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="112"/>
-    </row>
-    <row r="15" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="10" t="str">
+      <c r="O14" s="99"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="99"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="str">
         <f>K15</f>
         <v>EXPCOA1</v>
       </c>
-      <c r="C15" s="10" t="str">
+      <c r="C15" s="1" t="str">
         <f>$K$5</f>
         <v>COA</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="F15" s="60">
+      <c r="D15" s="1"/>
+      <c r="F15" s="50">
         <v>2.75</v>
       </c>
-      <c r="G15" s="55">
+      <c r="G15" s="45">
         <f>-'EB1'!D7</f>
         <v>745.59484999999995</v>
       </c>
-      <c r="I15" s="112" t="str">
+      <c r="I15" s="99" t="str">
         <f>'EB1'!B7</f>
         <v>EXP</v>
       </c>
-      <c r="J15" s="112"/>
-      <c r="K15" s="112" t="str">
+      <c r="J15" s="99"/>
+      <c r="K15" s="99" t="str">
         <f>$I$15&amp;$C$2&amp;1</f>
         <v>EXPCOA1</v>
       </c>
-      <c r="L15" s="115" t="str">
+      <c r="L15" s="101" t="str">
         <f>"Export of "&amp;$D$2&amp; " Step "&amp;RIGHT(K15,1)</f>
         <v>Export of Solid Fuels Step 1</v>
       </c>
-      <c r="M15" s="112" t="str">
+      <c r="M15" s="99" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N15" s="112" t="str">
+      <c r="N15" s="99" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O15" s="112"/>
-      <c r="P15" s="112"/>
-      <c r="Q15" s="112"/>
-      <c r="R15"/>
-    </row>
-    <row r="16" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="E16" s="9"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O15" s="99"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="99"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
     </row>
     <row r="22" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C22"/>
@@ -13932,139 +13749,17 @@
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="R23" s="1"/>
     </row>
-    <row r="25" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="58"/>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B25" s="48"/>
       <c r="C25" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-    </row>
-    <row r="26" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="56"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B26" s="46"/>
       <c r="C26" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-    </row>
-    <row r="27" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-    </row>
-    <row r="28" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-    </row>
-    <row r="29" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-    </row>
-    <row r="30" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-    </row>
-    <row r="31" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="R32" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14077,7 +13772,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:R34"/>
+  <dimension ref="B1:R24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:F65536"/>
@@ -14104,537 +13799,498 @@
     <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14" t="str">
+    <row r="2" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="str">
         <f>'EB1'!E2</f>
         <v>GAS</v>
       </c>
-      <c r="D2" s="14" t="str">
+      <c r="D2" s="9" t="str">
         <f>'EB1'!E3</f>
         <v>Natural Gas</v>
       </c>
-      <c r="E2" s="14" t="str">
+      <c r="E2" s="9" t="str">
         <f>'EB1'!Z2</f>
         <v>PJ</v>
       </c>
-      <c r="F2" s="14" t="str">
+      <c r="F2" s="9" t="str">
         <f>'EB1'!Y2</f>
         <v>M€2005</v>
       </c>
-      <c r="I2" s="106" t="s">
+      <c r="I2" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="I3" s="108" t="s">
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="I3" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="109" t="s">
+      <c r="J3" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="108" t="s">
+      <c r="K3" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="108" t="s">
+      <c r="L3" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="108" t="s">
+      <c r="M3" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="108" t="s">
+      <c r="N3" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="108" t="s">
+      <c r="O3" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="108" t="s">
+      <c r="P3" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="108" t="s">
+      <c r="Q3" s="96" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
-      <c r="I4" s="110" t="s">
+      <c r="I4" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="110" t="s">
+      <c r="J4" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="110" t="s">
+      <c r="K4" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="110" t="s">
+      <c r="L4" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="110" t="s">
+      <c r="M4" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="110" t="s">
+      <c r="N4" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="110" t="s">
+      <c r="O4" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="110" t="s">
+      <c r="P4" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="110" t="s">
+      <c r="Q4" s="98" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="I5" s="111" t="s">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="I5" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="112"/>
-      <c r="K5" s="111" t="str">
+      <c r="J5" s="99"/>
+      <c r="K5" s="95" t="str">
         <f>C2</f>
         <v>GAS</v>
       </c>
-      <c r="L5" s="111" t="str">
+      <c r="L5" s="95" t="str">
         <f>D2</f>
         <v>Natural Gas</v>
       </c>
-      <c r="M5" s="111" t="str">
+      <c r="M5" s="95" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="111"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="I7" s="106" t="s">
+      <c r="I7" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="106"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="113"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="J7" s="94"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G8" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="I8" s="108" t="s">
+      <c r="I8" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="109" t="s">
+      <c r="J8" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="108" t="s">
+      <c r="K8" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="108" t="s">
+      <c r="L8" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="108" t="s">
+      <c r="M8" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="108" t="s">
+      <c r="N8" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="108" t="s">
+      <c r="O8" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="108" t="s">
+      <c r="P8" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="108" t="s">
+      <c r="Q8" s="96" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:18" s="5" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+    <row r="9" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="110" t="s">
+      <c r="I9" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="110" t="s">
+      <c r="J9" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="110" t="s">
+      <c r="K9" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="110" t="s">
+      <c r="L9" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="110" t="s">
+      <c r="M9" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="110" t="s">
+      <c r="N9" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="110" t="s">
+      <c r="O9" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="110" t="s">
+      <c r="P9" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" s="110" t="s">
+      <c r="Q9" s="98" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:18" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+    <row r="10" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17" t="str">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="F10" s="17" t="str">
+      <c r="F10" s="11" t="str">
         <f>$F$2&amp;"/"&amp;$E$2</f>
         <v>M€2005/PJ</v>
       </c>
-      <c r="G10" s="17" t="str">
+      <c r="G10" s="11" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="I10" s="110" t="s">
+      <c r="I10" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="114"/>
-      <c r="N10" s="114"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="114"/>
-    </row>
-    <row r="11" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="10" t="str">
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="100"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="str">
         <f>K11</f>
         <v>MINGAS1</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="str">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="str">
         <f>$K$5</f>
         <v>GAS</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="43">
         <v>15000</v>
       </c>
-      <c r="F11" s="59">
+      <c r="F11" s="49">
         <v>3.6</v>
       </c>
-      <c r="G11" s="55">
+      <c r="G11" s="45">
         <f>'EB1'!$E$5*'EB1'!E21</f>
         <v>1579.8994000000002</v>
       </c>
-      <c r="I11" s="111" t="str">
+      <c r="I11" s="95" t="str">
         <f>'EB1'!$B$5</f>
         <v>MIN</v>
       </c>
-      <c r="J11" s="112"/>
-      <c r="K11" s="112" t="str">
+      <c r="J11" s="99"/>
+      <c r="K11" s="99" t="str">
         <f>$I$11&amp;$C$2&amp;1</f>
         <v>MINGAS1</v>
       </c>
-      <c r="L11" s="115" t="str">
+      <c r="L11" s="101" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(K11,1)</f>
         <v>Domestic Supply of Natural Gas Step 1</v>
       </c>
-      <c r="M11" s="112" t="str">
+      <c r="M11" s="99" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N11" s="112" t="str">
+      <c r="N11" s="99" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O11" s="112"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="112"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="10" t="str">
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="99"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="str">
         <f>K12</f>
         <v>MINGAS2</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="str">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="str">
         <f>$K$5</f>
         <v>GAS</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E12" s="43">
         <v>20000</v>
       </c>
-      <c r="F12" s="59">
+      <c r="F12" s="49">
         <v>4.1399999999999997</v>
       </c>
-      <c r="G12" s="55">
+      <c r="G12" s="45">
         <f>'EB1'!$E$5*'EB1'!E22</f>
         <v>1579.8994000000002</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112" t="str">
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99" t="str">
         <f>$I$11&amp;$C$2&amp;2</f>
         <v>MINGAS2</v>
       </c>
-      <c r="L12" s="115" t="str">
+      <c r="L12" s="101" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(K12,1)</f>
         <v>Domestic Supply of Natural Gas Step 2</v>
       </c>
-      <c r="M12" s="112" t="str">
+      <c r="M12" s="99" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N12" s="112" t="str">
+      <c r="N12" s="99" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O12" s="112"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="112"/>
-      <c r="R12" s="5"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="10" t="str">
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="99"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="str">
         <f>K13</f>
         <v>MINGAS3</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="str">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="str">
         <f>$K$5</f>
         <v>GAS</v>
       </c>
-      <c r="E13" s="59">
+      <c r="E13" s="49">
         <v>0</v>
       </c>
-      <c r="F13" s="59">
+      <c r="F13" s="49">
         <v>5.4</v>
       </c>
-      <c r="G13" s="53">
+      <c r="G13" s="43">
         <v>0</v>
       </c>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112" t="str">
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99" t="str">
         <f>$I$11&amp;$C$2&amp;3</f>
         <v>MINGAS3</v>
       </c>
-      <c r="L13" s="115" t="str">
+      <c r="L13" s="101" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(K13,1)</f>
         <v>Domestic Supply of Natural Gas Step 3</v>
       </c>
-      <c r="M13" s="112" t="str">
+      <c r="M13" s="99" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N13" s="112" t="str">
+      <c r="N13" s="99" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="112"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="10" t="str">
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="99"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="str">
         <f>K14</f>
         <v>IMPGAS1</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10" t="str">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="str">
         <f>$K$5</f>
         <v>GAS</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="59">
+      <c r="F14" s="49">
         <v>4.5</v>
       </c>
-      <c r="G14" s="55">
+      <c r="G14" s="45">
         <f>'EB1'!E6</f>
         <v>5316.6916000000001</v>
       </c>
-      <c r="I14" s="112" t="str">
+      <c r="I14" s="99" t="str">
         <f>'EB1'!$B$6</f>
         <v>IMP</v>
       </c>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112" t="str">
+      <c r="J14" s="99"/>
+      <c r="K14" s="99" t="str">
         <f>$I$14&amp;$C$2&amp;1</f>
         <v>IMPGAS1</v>
       </c>
-      <c r="L14" s="115" t="str">
+      <c r="L14" s="101" t="str">
         <f>"Import of "&amp;$D$2&amp; " Step "&amp;RIGHT(K14,1)</f>
         <v>Import of Natural Gas Step 1</v>
       </c>
-      <c r="M14" s="112" t="str">
+      <c r="M14" s="99" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N14" s="112" t="str">
+      <c r="N14" s="99" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="112"/>
-    </row>
-    <row r="15" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="10" t="str">
+      <c r="O14" s="99"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="99"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="str">
         <f>K15</f>
         <v>EXPGAS1</v>
       </c>
-      <c r="C15" s="10" t="str">
+      <c r="C15" s="1" t="str">
         <f>$K$5</f>
         <v>GAS</v>
       </c>
-      <c r="F15" s="59">
+      <c r="F15" s="49">
         <v>4.5</v>
       </c>
-      <c r="G15" s="55">
+      <c r="G15" s="45">
         <f>-'EB1'!E7</f>
         <v>1006.5324000000001</v>
       </c>
-      <c r="H15"/>
-      <c r="I15" s="112" t="str">
+      <c r="I15" s="99" t="str">
         <f>'EB1'!B7</f>
         <v>EXP</v>
       </c>
-      <c r="J15" s="112"/>
-      <c r="K15" s="112" t="str">
+      <c r="J15" s="99"/>
+      <c r="K15" s="99" t="str">
         <f>$I$15&amp;$C$2&amp;1</f>
         <v>EXPGAS1</v>
       </c>
-      <c r="L15" s="115" t="str">
+      <c r="L15" s="101" t="str">
         <f>"Export of "&amp;$D$2&amp; " Step "&amp;RIGHT(K15,1)</f>
         <v>Export of Natural Gas Step 1</v>
       </c>
-      <c r="M15" s="112" t="str">
+      <c r="M15" s="99" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N15" s="112" t="str">
+      <c r="N15" s="99" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O15" s="112"/>
-      <c r="P15" s="112"/>
-      <c r="Q15" s="112"/>
-      <c r="R15"/>
-    </row>
-    <row r="16" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O15" s="99"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="99"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
-      <c r="F16" s="61"/>
-    </row>
-    <row r="17" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
+      <c r="F16" s="51"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="58"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="23" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="56"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="1" t="s">
         <v>116</v>
       </c>
@@ -14658,148 +14314,6 @@
       <c r="H24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="26" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-      <c r="R26"/>
-    </row>
-    <row r="27" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-    </row>
-    <row r="28" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-    </row>
-    <row r="29" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-    </row>
-    <row r="30" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-    </row>
-    <row r="31" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-    </row>
-    <row r="32" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
-    </row>
-    <row r="33" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
-      <c r="Q33"/>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H34" s="5"/>
-      <c r="R34" s="5"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
@@ -14811,7 +14325,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:W34"/>
+  <dimension ref="B1:W24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:F65536"/>
@@ -14838,634 +14352,514 @@
     <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14" t="str">
+    <row r="2" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="str">
         <f>'EB1'!F2</f>
         <v>OIL</v>
       </c>
-      <c r="D2" s="14" t="str">
+      <c r="D2" s="9" t="str">
         <f>'EB1'!F3</f>
         <v>Crude Oil</v>
       </c>
-      <c r="E2" s="14" t="str">
+      <c r="E2" s="9" t="str">
         <f>'EB1'!Z2</f>
         <v>PJ</v>
       </c>
-      <c r="F2" s="14" t="str">
+      <c r="F2" s="9" t="str">
         <f>'EB1'!Y2</f>
         <v>M€2005</v>
       </c>
-      <c r="I2" s="106" t="s">
+      <c r="I2" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="I3" s="108" t="s">
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="I3" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="109" t="s">
+      <c r="J3" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="108" t="s">
+      <c r="K3" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="108" t="s">
+      <c r="L3" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="108" t="s">
+      <c r="M3" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="108" t="s">
+      <c r="N3" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="108" t="s">
+      <c r="O3" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="108" t="s">
+      <c r="P3" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="108" t="s">
+      <c r="Q3" s="96" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
-      <c r="I4" s="110" t="s">
+      <c r="I4" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="110" t="s">
+      <c r="J4" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="110" t="s">
+      <c r="K4" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="110" t="s">
+      <c r="L4" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="110" t="s">
+      <c r="M4" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="110" t="s">
+      <c r="N4" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="110" t="s">
+      <c r="O4" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="110" t="s">
+      <c r="P4" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="110" t="s">
+      <c r="Q4" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="I5" s="111" t="s">
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="I5" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="112"/>
-      <c r="K5" s="111" t="str">
+      <c r="J5" s="99"/>
+      <c r="K5" s="95" t="str">
         <f>C2</f>
         <v>OIL</v>
       </c>
-      <c r="L5" s="111" t="str">
+      <c r="L5" s="95" t="str">
         <f>D2</f>
         <v>Crude Oil</v>
       </c>
-      <c r="M5" s="111" t="str">
+      <c r="M5" s="95" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="111"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="I7" s="106" t="s">
+      <c r="I7" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="106"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="113"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="J7" s="94"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G8" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="I8" s="108" t="s">
+      <c r="I8" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="109" t="s">
+      <c r="J8" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="108" t="s">
+      <c r="K8" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="108" t="s">
+      <c r="L8" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="108" t="s">
+      <c r="M8" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="108" t="s">
+      <c r="N8" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="108" t="s">
+      <c r="O8" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="108" t="s">
+      <c r="P8" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="108" t="s">
+      <c r="Q8" s="96" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+    <row r="9" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="110" t="s">
+      <c r="I9" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="110" t="s">
+      <c r="J9" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="110" t="s">
+      <c r="K9" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="110" t="s">
+      <c r="L9" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="110" t="s">
+      <c r="M9" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="110" t="s">
+      <c r="N9" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="110" t="s">
+      <c r="O9" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="110" t="s">
+      <c r="P9" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" s="110" t="s">
+      <c r="Q9" s="98" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:23" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+    <row r="10" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17" t="str">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="F10" s="17" t="str">
+      <c r="F10" s="11" t="str">
         <f>$F$2&amp;"/"&amp;$E$2</f>
         <v>M€2005/PJ</v>
       </c>
-      <c r="G10" s="17" t="str">
+      <c r="G10" s="11" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="I10" s="110" t="s">
+      <c r="I10" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="114"/>
-      <c r="N10" s="114"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="114"/>
-      <c r="R10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-    </row>
-    <row r="11" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="10" t="str">
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="100"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="str">
         <f>K11</f>
         <v>MINOIL1</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="str">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="str">
         <f>$K$5</f>
         <v>OIL</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="38">
         <v>7200</v>
       </c>
-      <c r="F11" s="59">
+      <c r="F11" s="49">
         <v>6.4</v>
       </c>
-      <c r="G11" s="55">
+      <c r="G11" s="45">
         <f>'EB1'!$F$5*'EB1'!F21</f>
         <v>2149.0016000000001</v>
       </c>
-      <c r="I11" s="111" t="str">
+      <c r="I11" s="95" t="str">
         <f>'EB1'!$B$5</f>
         <v>MIN</v>
       </c>
-      <c r="J11" s="112"/>
-      <c r="K11" s="112" t="str">
+      <c r="J11" s="99"/>
+      <c r="K11" s="99" t="str">
         <f>$I$11&amp;$C$2&amp;1</f>
         <v>MINOIL1</v>
       </c>
-      <c r="L11" s="115" t="str">
+      <c r="L11" s="101" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(K11,1)</f>
         <v>Domestic Supply of Crude Oil Step 1</v>
       </c>
-      <c r="M11" s="112" t="str">
+      <c r="M11" s="99" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N11" s="112" t="str">
+      <c r="N11" s="99" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O11" s="112"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="112"/>
-    </row>
-    <row r="12" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="10" t="str">
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="99"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="str">
         <f>K12</f>
         <v>MINOIL2</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="str">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="str">
         <f>$K$5</f>
         <v>OIL</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="38">
         <v>1800</v>
       </c>
-      <c r="F12" s="59">
+      <c r="F12" s="49">
         <v>7.3599999999999994</v>
       </c>
-      <c r="G12" s="55">
+      <c r="G12" s="45">
         <f>'EB1'!$F$5*'EB1'!F22</f>
         <v>537.25040000000001</v>
       </c>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112" t="str">
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99" t="str">
         <f>$I$11&amp;$C$2&amp;2</f>
         <v>MINOIL2</v>
       </c>
-      <c r="L12" s="115" t="str">
+      <c r="L12" s="101" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(K12,1)</f>
         <v>Domestic Supply of Crude Oil Step 2</v>
       </c>
-      <c r="M12" s="112" t="str">
+      <c r="M12" s="99" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N12" s="112" t="str">
+      <c r="N12" s="99" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O12" s="112"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="112"/>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B13" s="10" t="str">
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="99"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="str">
         <f>K13</f>
         <v>MINOIL3</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="str">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="str">
         <f>$K$5</f>
         <v>OIL</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="38">
         <v>1200000</v>
       </c>
-      <c r="F13" s="59">
+      <c r="F13" s="49">
         <v>9.6000000000000014</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112" t="str">
+      <c r="G13" s="10"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99" t="str">
         <f>$I$11&amp;$C$2&amp;3</f>
         <v>MINOIL3</v>
       </c>
-      <c r="L13" s="115" t="str">
+      <c r="L13" s="101" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(K13,1)</f>
         <v>Domestic Supply of Crude Oil Step 3</v>
       </c>
-      <c r="M13" s="112" t="str">
+      <c r="M13" s="99" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N13" s="112" t="str">
+      <c r="N13" s="99" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="112"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B14" s="10" t="str">
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="99"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="str">
         <f>K14</f>
         <v>IMPOIL1</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10" t="str">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="str">
         <f>$K$5</f>
         <v>OIL</v>
       </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="59">
+      <c r="E14" s="38"/>
+      <c r="F14" s="49">
         <v>8</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="I14" s="112" t="str">
+      <c r="G14" s="10"/>
+      <c r="I14" s="99" t="str">
         <f>'EB1'!$B$6</f>
         <v>IMP</v>
       </c>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112" t="str">
+      <c r="J14" s="99"/>
+      <c r="K14" s="99" t="str">
         <f>$I$14&amp;$C$2&amp;1</f>
         <v>IMPOIL1</v>
       </c>
-      <c r="L14" s="115" t="str">
+      <c r="L14" s="101" t="str">
         <f>"Import of "&amp;$D$2&amp; " Step "&amp;RIGHT(K14,1)</f>
         <v>Import of Crude Oil Step 1</v>
       </c>
-      <c r="M14" s="112" t="str">
+      <c r="M14" s="99" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N14" s="112" t="str">
+      <c r="N14" s="99" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="112"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="10" t="str">
+      <c r="O14" s="99"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="99"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="str">
         <f>K15</f>
         <v>EXPOIL1</v>
       </c>
-      <c r="C15" s="10" t="str">
+      <c r="C15" s="1" t="str">
         <f>$K$5</f>
         <v>OIL</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="59">
+      <c r="D15" s="1"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="49">
         <v>8</v>
       </c>
-      <c r="G15" s="54">
+      <c r="G15" s="44">
         <f>-'EB1'!F7</f>
         <v>1648.4854999999998</v>
       </c>
-      <c r="I15" s="112" t="str">
+      <c r="I15" s="99" t="str">
         <f>'EB1'!B7</f>
         <v>EXP</v>
       </c>
-      <c r="J15" s="112"/>
-      <c r="K15" s="112" t="str">
+      <c r="J15" s="99"/>
+      <c r="K15" s="99" t="str">
         <f>$I$15&amp;$C$2&amp;1</f>
         <v>EXPOIL1</v>
       </c>
-      <c r="L15" s="115" t="str">
+      <c r="L15" s="101" t="str">
         <f>"Export of "&amp;$D$2&amp; " Step "&amp;RIGHT(K15,1)</f>
         <v>Export of Crude Oil Step 1</v>
       </c>
-      <c r="M15" s="112" t="str">
+      <c r="M15" s="99" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N15" s="112" t="str">
+      <c r="N15" s="99" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O15" s="112"/>
-      <c r="P15" s="112"/>
-      <c r="Q15" s="112"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-    </row>
-    <row r="16" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="F16" s="61"/>
-      <c r="R16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-    </row>
-    <row r="17" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O15" s="99"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="99"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="F16" s="51"/>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
-      <c r="F17" s="61"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-    </row>
-    <row r="18" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="S18"/>
+      <c r="F17" s="51"/>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
-      <c r="V18"/>
-      <c r="W18"/>
-    </row>
-    <row r="19" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
       <c r="S19" s="1"/>
-      <c r="T19"/>
-      <c r="U19"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-    </row>
-    <row r="21" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
-      <c r="W21"/>
-    </row>
-    <row r="22" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="S22"/>
-      <c r="T22"/>
-      <c r="U22"/>
-      <c r="V22"/>
-      <c r="W22"/>
-    </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B23" s="58"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="R23" s="5"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B24" s="56"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="1" t="s">
         <v>116</v>
       </c>
       <c r="H24" s="1"/>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H34" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15478,7 +14872,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B1:Q38"/>
+  <dimension ref="B1:P24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:G65536"/>
@@ -15486,13 +14880,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="2" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2" style="27" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
@@ -15502,575 +14896,357 @@
     <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.85546875" style="33"/>
+    <col min="17" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14" t="str">
+    <row r="2" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="str">
         <f>'EB1'!N2</f>
         <v>NUC</v>
       </c>
-      <c r="D2" s="14" t="str">
+      <c r="D2" s="9" t="str">
         <f>'EB1'!N3</f>
         <v>Nuclear Energy</v>
       </c>
-      <c r="E2" s="14" t="str">
+      <c r="E2" s="9" t="str">
         <f>'EB1'!Z2</f>
         <v>PJ</v>
       </c>
-      <c r="F2" s="14" t="str">
+      <c r="F2" s="9" t="str">
         <f>'EB1'!Y2</f>
         <v>M€2005</v>
       </c>
-      <c r="H2" s="106" t="s">
+      <c r="H2" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="106"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="F3" s="13"/>
-      <c r="H3" s="108" t="s">
+      <c r="I2" s="94"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F3" s="8"/>
+      <c r="H3" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="109" t="s">
+      <c r="I3" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="108" t="s">
+      <c r="J3" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="108" t="s">
+      <c r="K3" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="108" t="s">
+      <c r="L3" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="108" t="s">
+      <c r="M3" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="108" t="s">
+      <c r="N3" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="108" t="s">
+      <c r="O3" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="108" t="s">
+      <c r="P3" s="96" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="H4" s="110" t="s">
+      <c r="H4" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="110" t="s">
+      <c r="I4" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="110" t="s">
+      <c r="J4" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="110" t="s">
+      <c r="K4" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="110" t="s">
+      <c r="L4" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="110" t="s">
+      <c r="M4" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="110" t="s">
+      <c r="N4" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="110" t="s">
+      <c r="O4" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="110" t="s">
+      <c r="P4" s="98" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="H5" s="111" t="s">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="H5" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="112"/>
-      <c r="J5" s="111" t="str">
+      <c r="I5" s="99"/>
+      <c r="J5" s="95" t="str">
         <f>C2</f>
         <v>NUC</v>
       </c>
-      <c r="K5" s="111" t="str">
+      <c r="K5" s="95" t="str">
         <f>D2</f>
         <v>Nuclear Energy</v>
       </c>
-      <c r="L5" s="111" t="str">
+      <c r="L5" s="95" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="H7" s="106" t="s">
+      <c r="H7" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="106"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="113"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="I7" s="94"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="108" t="s">
+      <c r="H8" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="109" t="s">
+      <c r="I8" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="108" t="s">
+      <c r="J8" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="108" t="s">
+      <c r="K8" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="108" t="s">
+      <c r="L8" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="108" t="s">
+      <c r="M8" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="108" t="s">
+      <c r="N8" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="108" t="s">
+      <c r="O8" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="108" t="s">
+      <c r="P8" s="96" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+    <row r="9" spans="2:16" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="110" t="s">
+      <c r="H9" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="110" t="s">
+      <c r="I9" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="110" t="s">
+      <c r="J9" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="110" t="s">
+      <c r="K9" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="110" t="s">
+      <c r="L9" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="110" t="s">
+      <c r="M9" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="110" t="s">
+      <c r="N9" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="O9" s="110" t="s">
+      <c r="O9" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="110" t="s">
+      <c r="P9" s="98" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:17" s="35" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+    <row r="10" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17" t="str">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11" t="str">
         <f>$F$2&amp;"/"&amp;$E$2</f>
         <v>M€2005/PJ</v>
       </c>
-      <c r="F10" s="17" t="str">
+      <c r="F10" s="11" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="110" t="s">
+      <c r="H10" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="114"/>
-      <c r="N10" s="114"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="33"/>
-    </row>
-    <row r="11" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="10" t="str">
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="100"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="str">
         <f>J11</f>
         <v>MINNUC1</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="str">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="str">
         <f>$J$5</f>
         <v>NUC</v>
       </c>
-      <c r="E11" s="67">
+      <c r="E11" s="56">
         <v>0.25</v>
       </c>
-      <c r="F11" s="68"/>
-      <c r="H11" s="111" t="str">
+      <c r="F11" s="57"/>
+      <c r="H11" s="95" t="str">
         <f>'EB1'!$B$5</f>
         <v>MIN</v>
       </c>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112" t="str">
+      <c r="I11" s="99"/>
+      <c r="J11" s="99" t="str">
         <f>$H$11&amp;$C$2&amp;1</f>
         <v>MINNUC1</v>
       </c>
-      <c r="K11" s="115" t="str">
+      <c r="K11" s="101" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(J11,1)</f>
         <v>Domestic Supply of Nuclear Energy Step 1</v>
       </c>
-      <c r="L11" s="112" t="str">
+      <c r="L11" s="99" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M11" s="112" t="str">
+      <c r="M11" s="99" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="N11" s="112"/>
-      <c r="O11" s="112"/>
-      <c r="P11" s="112"/>
-    </row>
-    <row r="12" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="68"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="35"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="16"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-    </row>
-    <row r="16" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="33"/>
-    </row>
-    <row r="17" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="35"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-    </row>
-    <row r="20" spans="2:17" s="34" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="33"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="34"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-    </row>
-    <row r="23" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="48"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57"/>
+      <c r="K12" s="17"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="25"/>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="5"/>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="20" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="38"/>
       <c r="C23" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23" s="33"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23" s="33"/>
-    </row>
-    <row r="24" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="56"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="46"/>
       <c r="C24" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-    </row>
-    <row r="25" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="G26" s="35"/>
-      <c r="Q26" s="35"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="G30" s="36"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="G31" s="36"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="G32" s="36"/>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G33" s="36"/>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G34" s="36"/>
-    </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G35" s="36"/>
-    </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G36" s="36"/>
-    </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G37" s="36"/>
-    </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G38" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16083,7 +15259,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B1:Q40"/>
+  <dimension ref="B1:P26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:G65536"/>
@@ -16091,13 +15267,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="2" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2" style="27" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
@@ -16107,705 +15283,540 @@
     <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.85546875" style="33"/>
+    <col min="17" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14" t="str">
+    <row r="2" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="str">
         <f>'EB1'!O2</f>
         <v>BIO</v>
       </c>
-      <c r="D2" s="14" t="str">
+      <c r="D2" s="9" t="str">
         <f>'EB1'!O3</f>
         <v>Biomass</v>
       </c>
-      <c r="E2" s="14" t="str">
+      <c r="E2" s="9" t="str">
         <f>'EB1'!$Z$2</f>
         <v>PJ</v>
       </c>
-      <c r="F2" s="14" t="str">
+      <c r="F2" s="9" t="str">
         <f>'EB1'!Y2</f>
         <v>M€2005</v>
       </c>
-      <c r="H2" s="106" t="s">
+      <c r="H2" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="106"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-    </row>
-    <row r="3" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="14" t="str">
+      <c r="I2" s="94"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+    </row>
+    <row r="3" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="9" t="str">
         <f>'EB1'!P2</f>
         <v>HYD</v>
       </c>
-      <c r="D3" s="14" t="str">
+      <c r="D3" s="9" t="str">
         <f>'EB1'!P3</f>
         <v>Hydro power</v>
       </c>
-      <c r="E3" s="14" t="str">
+      <c r="E3" s="9" t="str">
         <f>'EB1'!$Z$2</f>
         <v>PJ</v>
       </c>
-      <c r="H3" s="108" t="s">
+      <c r="H3" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="109" t="s">
+      <c r="I3" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="108" t="s">
+      <c r="J3" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="108" t="s">
+      <c r="K3" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="108" t="s">
+      <c r="L3" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="108" t="s">
+      <c r="M3" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="108" t="s">
+      <c r="N3" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="108" t="s">
+      <c r="O3" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="108" t="s">
+      <c r="P3" s="96" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
-      <c r="C4" s="14" t="str">
+      <c r="C4" s="9" t="str">
         <f>'EB1'!Q2</f>
         <v>WIN</v>
       </c>
-      <c r="D4" s="14" t="str">
+      <c r="D4" s="9" t="str">
         <f>'EB1'!Q3</f>
         <v>Wind energy</v>
       </c>
-      <c r="E4" s="14" t="str">
+      <c r="E4" s="9" t="str">
         <f>'EB1'!$Z$2</f>
         <v>PJ</v>
       </c>
-      <c r="H4" s="110" t="s">
+      <c r="H4" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="110" t="s">
+      <c r="I4" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="110" t="s">
+      <c r="J4" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="110" t="s">
+      <c r="K4" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="110" t="s">
+      <c r="L4" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="110" t="s">
+      <c r="M4" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="110" t="s">
+      <c r="N4" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="110" t="s">
+      <c r="O4" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="110" t="s">
+      <c r="P4" s="98" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="14" t="str">
+    <row r="5" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="9" t="str">
         <f>'EB1'!R2</f>
         <v>SOL</v>
       </c>
-      <c r="D5" s="14" t="str">
+      <c r="D5" s="9" t="str">
         <f>'EB1'!R3</f>
         <v>Solar energy</v>
       </c>
-      <c r="E5" s="14" t="str">
+      <c r="E5" s="9" t="str">
         <f>'EB1'!$Z$2</f>
         <v>PJ</v>
       </c>
-      <c r="H5" s="111" t="s">
+      <c r="H5" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="112"/>
-      <c r="J5" s="111" t="str">
+      <c r="I5" s="99"/>
+      <c r="J5" s="95" t="str">
         <f t="shared" ref="J5:K8" si="0">C2</f>
         <v>BIO</v>
       </c>
-      <c r="K5" s="111" t="str">
+      <c r="K5" s="95" t="str">
         <f t="shared" si="0"/>
         <v>Biomass</v>
       </c>
-      <c r="L5" s="111" t="str">
+      <c r="L5" s="95" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="111" t="str">
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="H6" s="95"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="95" t="str">
         <f t="shared" si="0"/>
         <v>HYD</v>
       </c>
-      <c r="K6" s="111" t="str">
+      <c r="K6" s="95" t="str">
         <f t="shared" si="0"/>
         <v>Hydro power</v>
       </c>
-      <c r="L6" s="111" t="str">
+      <c r="L6" s="95" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-    </row>
-    <row r="7" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="111" t="str">
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="95"/>
+    </row>
+    <row r="7" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="95" t="str">
         <f t="shared" si="0"/>
         <v>WIN</v>
       </c>
-      <c r="K7" s="111" t="str">
+      <c r="K7" s="95" t="str">
         <f t="shared" si="0"/>
         <v>Wind energy</v>
       </c>
-      <c r="L7" s="111" t="str">
+      <c r="L7" s="95" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-    </row>
-    <row r="8" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="111" t="str">
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
+    </row>
+    <row r="8" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="95" t="str">
         <f t="shared" si="0"/>
         <v>SOL</v>
       </c>
-      <c r="K8" s="111" t="str">
+      <c r="K8" s="95" t="str">
         <f t="shared" si="0"/>
         <v>Solar energy</v>
       </c>
-      <c r="L8" s="111" t="str">
+      <c r="L8" s="95" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="H10" s="106" t="s">
+      <c r="H10" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="106"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="113"/>
-      <c r="N10" s="113"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="113"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="I10" s="94"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="99"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="66" t="s">
+      <c r="E11" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="108" t="s">
+      <c r="H11" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="109" t="s">
+      <c r="I11" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="108" t="s">
+      <c r="J11" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="K11" s="108" t="s">
+      <c r="K11" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="L11" s="108" t="s">
+      <c r="L11" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="108" t="s">
+      <c r="M11" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="108" t="s">
+      <c r="N11" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="108" t="s">
+      <c r="O11" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="108" t="s">
+      <c r="P11" s="96" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+    <row r="12" spans="2:16" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="110" t="s">
+      <c r="H12" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="110" t="s">
+      <c r="I12" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="110" t="s">
+      <c r="J12" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="110" t="s">
+      <c r="K12" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="110" t="s">
+      <c r="L12" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="110" t="s">
+      <c r="M12" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="N12" s="110" t="s">
+      <c r="N12" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="O12" s="110" t="s">
+      <c r="O12" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="P12" s="110" t="s">
+      <c r="P12" s="98" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:17" s="35" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+    <row r="13" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17" t="str">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11" t="str">
         <f>$F$2&amp;"/"&amp;$E$2</f>
         <v>M€2005/PJ</v>
       </c>
-      <c r="F13" s="17" t="str">
+      <c r="F13" s="11" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="110" t="s">
+      <c r="H13" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="114"/>
-      <c r="N13" s="114"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="114"/>
-      <c r="Q13" s="33"/>
-    </row>
-    <row r="14" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="10" t="str">
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="100"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="str">
         <f>J14</f>
         <v>MINBIO1</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10" t="str">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="str">
         <f>J5</f>
         <v>BIO</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="38">
         <v>4.0500000000000007</v>
       </c>
-      <c r="F14" s="68"/>
-      <c r="H14" s="111" t="str">
+      <c r="F14" s="57"/>
+      <c r="H14" s="95" t="str">
         <f>'EB1'!$B$5</f>
         <v>MIN</v>
       </c>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112" t="str">
+      <c r="I14" s="99"/>
+      <c r="J14" s="99" t="str">
         <f>$H$14&amp;C2&amp;1</f>
         <v>MINBIO1</v>
       </c>
-      <c r="K14" s="115" t="str">
+      <c r="K14" s="101" t="str">
         <f>"Domestic Supply of "&amp;D2&amp; " Step "&amp;RIGHT(J14,1)</f>
         <v>Domestic Supply of Biomass Step 1</v>
       </c>
-      <c r="L14" s="112" t="str">
+      <c r="L14" s="99" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M14" s="112" t="str">
+      <c r="M14" s="99" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="N14" s="112"/>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
-    </row>
-    <row r="15" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="10" t="str">
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="99"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="str">
         <f>J15</f>
         <v>MINHYD1</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10" t="str">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="str">
         <f>J6</f>
         <v>HYD</v>
       </c>
-      <c r="E15" s="67"/>
-      <c r="F15" s="68"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="112" t="str">
+      <c r="E15" s="56"/>
+      <c r="F15" s="57"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99" t="str">
         <f>$H$14&amp;C3&amp;1</f>
         <v>MINHYD1</v>
       </c>
-      <c r="K15" s="115" t="str">
+      <c r="K15" s="101" t="str">
         <f>"Domestic Supply of "&amp;D3&amp; " Step "&amp;RIGHT(J15,1)</f>
         <v>Domestic Supply of Hydro power Step 1</v>
       </c>
-      <c r="L15" s="112" t="str">
+      <c r="L15" s="99" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M15" s="112" t="str">
+      <c r="M15" s="99" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="N15" s="112"/>
-      <c r="O15" s="112"/>
-      <c r="P15" s="112"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B16" s="10" t="str">
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="99"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="str">
         <f>J16</f>
         <v>MINWIN1</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10" t="str">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="str">
         <f>J7</f>
         <v>WIN</v>
       </c>
-      <c r="E16" s="67"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="112"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="112" t="str">
+      <c r="E16" s="56"/>
+      <c r="F16" s="57"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99" t="str">
         <f>$H$14&amp;C4&amp;1</f>
         <v>MINWIN1</v>
       </c>
-      <c r="K16" s="115" t="str">
+      <c r="K16" s="101" t="str">
         <f>"Domestic Supply of "&amp;D4&amp; " Step "&amp;RIGHT(J16,1)</f>
         <v>Domestic Supply of Wind energy Step 1</v>
       </c>
-      <c r="L16" s="112" t="str">
+      <c r="L16" s="99" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M16" s="112" t="str">
+      <c r="M16" s="99" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="N16" s="112"/>
-      <c r="O16" s="112"/>
-      <c r="P16" s="112"/>
-      <c r="Q16" s="35"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B17" s="10" t="str">
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="99"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="str">
         <f>J17</f>
         <v>MINSOL1</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10" t="str">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="str">
         <f>J8</f>
         <v>SOL</v>
       </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="5"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112" t="str">
+      <c r="E17" s="25"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99" t="str">
         <f>$H$14&amp;C5&amp;1</f>
         <v>MINSOL1</v>
       </c>
-      <c r="K17" s="115" t="str">
+      <c r="K17" s="101" t="str">
         <f>"Domestic Supply of "&amp;D5&amp; " Step "&amp;RIGHT(J17,1)</f>
         <v>Domestic Supply of Solar energy Step 1</v>
       </c>
-      <c r="L17" s="112" t="str">
+      <c r="L17" s="99" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M17" s="112" t="str">
+      <c r="M17" s="99" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="N17" s="112"/>
-      <c r="O17" s="112"/>
-      <c r="P17" s="112"/>
-    </row>
-    <row r="18" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="33"/>
-    </row>
-    <row r="19" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D19"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B20" s="48"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="99"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" s="38"/>
       <c r="C20" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="35"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B21" s="56"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="46"/>
       <c r="C21" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-    </row>
-    <row r="22" spans="2:17" s="34" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="33"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="34"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-    </row>
-    <row r="25" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25" s="33"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25" s="33"/>
-    </row>
-    <row r="26" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-    </row>
-    <row r="27" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="G28" s="35"/>
-      <c r="Q28" s="35"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="G32" s="36"/>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G33" s="36"/>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G34" s="36"/>
-    </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G35" s="36"/>
-    </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G36" s="36"/>
-    </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G37" s="36"/>
-    </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G38" s="36"/>
-    </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G39" s="36"/>
-    </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G40" s="36"/>
+    </row>
+    <row r="22" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16844,1051 +15855,974 @@
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="14" t="str">
+      <c r="C2" s="9" t="str">
         <f>'EB1'!G$2</f>
         <v>DSL</v>
       </c>
-      <c r="D2" s="14" t="str">
+      <c r="D2" s="9" t="str">
         <f>'EB1'!G$3</f>
         <v>Diesel oil</v>
       </c>
-      <c r="E2" s="14" t="str">
+      <c r="E2" s="9" t="str">
         <f>'EB1'!$Z$2</f>
         <v>PJ</v>
       </c>
-      <c r="F2" s="14" t="str">
+      <c r="F2" s="9" t="str">
         <f>'EB1'!Y2</f>
         <v>M€2005</v>
       </c>
-      <c r="H2" s="106" t="s">
+      <c r="H2" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="106"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-    </row>
-    <row r="3" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="14" t="str">
+      <c r="I2" s="94"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+    </row>
+    <row r="3" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="9" t="str">
         <f>'EB1'!H$2</f>
         <v>KER</v>
       </c>
-      <c r="D3" s="14" t="str">
+      <c r="D3" s="9" t="str">
         <f>'EB1'!H$3</f>
         <v>Kerosenes</v>
       </c>
-      <c r="E3" s="14" t="str">
+      <c r="E3" s="9" t="str">
         <f>'EB1'!$Z$2</f>
         <v>PJ</v>
       </c>
-      <c r="H3" s="108" t="s">
+      <c r="H3" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="109" t="s">
+      <c r="I3" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="108" t="s">
+      <c r="J3" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="108" t="s">
+      <c r="K3" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="108" t="s">
+      <c r="L3" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="108" t="s">
+      <c r="M3" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="108" t="s">
+      <c r="N3" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="108" t="s">
+      <c r="O3" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="108" t="s">
+      <c r="P3" s="96" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="14" t="str">
+    <row r="4" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="9" t="str">
         <f>'EB1'!I$2</f>
         <v>LPG</v>
       </c>
-      <c r="D4" s="14" t="str">
+      <c r="D4" s="9" t="str">
         <f>'EB1'!I$3</f>
         <v>LPG</v>
       </c>
-      <c r="E4" s="14" t="str">
+      <c r="E4" s="9" t="str">
         <f>'EB1'!$Z$2</f>
         <v>PJ</v>
       </c>
-      <c r="H4" s="110" t="s">
+      <c r="H4" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="110" t="s">
+      <c r="I4" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="110" t="s">
+      <c r="J4" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="110" t="s">
+      <c r="K4" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="110" t="s">
+      <c r="L4" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="110" t="s">
+      <c r="M4" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="110" t="s">
+      <c r="N4" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="110" t="s">
+      <c r="O4" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="110" t="s">
+      <c r="P4" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-    </row>
-    <row r="5" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="14" t="str">
+    </row>
+    <row r="5" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="9" t="str">
         <f>'EB1'!J$2</f>
         <v>GSL</v>
       </c>
-      <c r="D5" s="14" t="str">
+      <c r="D5" s="9" t="str">
         <f>'EB1'!J$3</f>
         <v>Motor spirit</v>
       </c>
-      <c r="E5" s="14" t="str">
+      <c r="E5" s="9" t="str">
         <f>'EB1'!$Z$2</f>
         <v>PJ</v>
       </c>
-      <c r="H5" s="111" t="s">
+      <c r="H5" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="112"/>
-      <c r="J5" s="111" t="str">
+      <c r="I5" s="99"/>
+      <c r="J5" s="95" t="str">
         <f t="shared" ref="J5:K11" si="0">C2</f>
         <v>DSL</v>
       </c>
-      <c r="K5" s="111" t="str">
+      <c r="K5" s="95" t="str">
         <f t="shared" si="0"/>
         <v>Diesel oil</v>
       </c>
-      <c r="L5" s="111" t="str">
+      <c r="L5" s="95" t="str">
         <f t="shared" ref="L5:L11" si="1">$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-    </row>
-    <row r="6" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="14" t="str">
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+    </row>
+    <row r="6" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="9" t="str">
         <f>'EB1'!K$2</f>
         <v>NAP</v>
       </c>
-      <c r="D6" s="14" t="str">
+      <c r="D6" s="9" t="str">
         <f>'EB1'!K$3</f>
         <v>Naphtha</v>
       </c>
-      <c r="E6" s="14" t="str">
+      <c r="E6" s="9" t="str">
         <f>'EB1'!$Z$2</f>
         <v>PJ</v>
       </c>
-      <c r="H6" s="111"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="111" t="str">
+      <c r="H6" s="95"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="95" t="str">
         <f t="shared" si="0"/>
         <v>KER</v>
       </c>
-      <c r="K6" s="111" t="str">
+      <c r="K6" s="95" t="str">
         <f t="shared" si="0"/>
         <v>Kerosenes</v>
       </c>
-      <c r="L6" s="111" t="str">
+      <c r="L6" s="95" t="str">
         <f t="shared" si="1"/>
         <v>PJ</v>
       </c>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-    </row>
-    <row r="7" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="14" t="str">
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="95"/>
+    </row>
+    <row r="7" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="9" t="str">
         <f>'EB1'!L$2</f>
         <v>HFO</v>
       </c>
-      <c r="D7" s="14" t="str">
+      <c r="D7" s="9" t="str">
         <f>'EB1'!L$3</f>
         <v>Heavy Fuel Oil</v>
       </c>
-      <c r="E7" s="14" t="str">
+      <c r="E7" s="9" t="str">
         <f>'EB1'!$Z$2</f>
         <v>PJ</v>
       </c>
-      <c r="H7" s="111"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="111" t="str">
+      <c r="H7" s="95"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="95" t="str">
         <f t="shared" si="0"/>
         <v>LPG</v>
       </c>
-      <c r="K7" s="111" t="str">
+      <c r="K7" s="95" t="str">
         <f t="shared" si="0"/>
         <v>LPG</v>
       </c>
-      <c r="L7" s="111" t="str">
+      <c r="L7" s="95" t="str">
         <f t="shared" si="1"/>
         <v>PJ</v>
       </c>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-    </row>
-    <row r="8" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="14" t="str">
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
+    </row>
+    <row r="8" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="9" t="str">
         <f>'EB1'!M$2</f>
         <v>OPP</v>
       </c>
-      <c r="D8" s="14" t="str">
+      <c r="D8" s="9" t="str">
         <f>'EB1'!M$3</f>
         <v>Other Petroleum Products</v>
       </c>
-      <c r="E8" s="14" t="str">
+      <c r="E8" s="9" t="str">
         <f>'EB1'!$Z$2</f>
         <v>PJ</v>
       </c>
-      <c r="H8" s="111"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="111" t="str">
+      <c r="H8" s="95"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="95" t="str">
         <f t="shared" si="0"/>
         <v>GSL</v>
       </c>
-      <c r="K8" s="111" t="str">
+      <c r="K8" s="95" t="str">
         <f t="shared" si="0"/>
         <v>Motor spirit</v>
       </c>
-      <c r="L8" s="111" t="str">
+      <c r="L8" s="95" t="str">
         <f t="shared" si="1"/>
         <v>PJ</v>
       </c>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="H9" s="111"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="111" t="str">
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="H9" s="95"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="95" t="str">
         <f t="shared" si="0"/>
         <v>NAP</v>
       </c>
-      <c r="K9" s="111" t="str">
+      <c r="K9" s="95" t="str">
         <f t="shared" si="0"/>
         <v>Naphtha</v>
       </c>
-      <c r="L9" s="111" t="str">
+      <c r="L9" s="95" t="str">
         <f t="shared" si="1"/>
         <v>PJ</v>
       </c>
-      <c r="M9" s="111"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="111"/>
-      <c r="P9" s="111"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-    </row>
-    <row r="10" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="111" t="str">
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="95"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="H10" s="95"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="95" t="str">
         <f t="shared" si="0"/>
         <v>HFO</v>
       </c>
-      <c r="K10" s="111" t="str">
+      <c r="K10" s="95" t="str">
         <f t="shared" si="0"/>
         <v>Heavy Fuel Oil</v>
       </c>
-      <c r="L10" s="111" t="str">
+      <c r="L10" s="95" t="str">
         <f t="shared" si="1"/>
         <v>PJ</v>
       </c>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
-      <c r="Q10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-    </row>
-    <row r="11" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H11" s="111"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="111" t="str">
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="95"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="H11" s="95"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="95" t="str">
         <f t="shared" si="0"/>
         <v>OPP</v>
       </c>
-      <c r="K11" s="111" t="str">
+      <c r="K11" s="95" t="str">
         <f t="shared" si="0"/>
         <v>Other Petroleum Products</v>
       </c>
-      <c r="L11" s="111" t="str">
+      <c r="L11" s="95" t="str">
         <f t="shared" si="1"/>
         <v>PJ</v>
       </c>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11"/>
-    </row>
-    <row r="12" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="H13" s="106" t="s">
+      <c r="H13" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="106"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="113"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="I13" s="94"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="66" t="s">
+      <c r="E14" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="108" t="s">
+      <c r="H14" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="109" t="s">
+      <c r="I14" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="108" t="s">
+      <c r="J14" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="108" t="s">
+      <c r="K14" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="L14" s="108" t="s">
+      <c r="L14" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="108" t="s">
+      <c r="M14" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="108" t="s">
+      <c r="N14" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="O14" s="108" t="s">
+      <c r="O14" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="P14" s="108" t="s">
+      <c r="P14" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-    </row>
-    <row r="15" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
+    </row>
+    <row r="15" spans="2:16" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="110" t="s">
+      <c r="H15" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="110" t="s">
+      <c r="I15" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="110" t="s">
+      <c r="J15" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="110" t="s">
+      <c r="K15" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="110" t="s">
+      <c r="L15" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="110" t="s">
+      <c r="M15" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="N15" s="110" t="s">
+      <c r="N15" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="O15" s="110" t="s">
+      <c r="O15" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="P15" s="110" t="s">
+      <c r="P15" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-    </row>
-    <row r="16" spans="2:22" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+    </row>
+    <row r="16" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17" t="str">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11" t="str">
         <f>$F$2&amp;"/"&amp;$E$2</f>
         <v>M€2005/PJ</v>
       </c>
-      <c r="F16" s="17" t="str">
+      <c r="F16" s="11" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="H16" s="110" t="s">
+      <c r="H16" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="110"/>
-      <c r="P16" s="110"/>
-      <c r="Q16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-    </row>
-    <row r="17" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="10" t="str">
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="98"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="str">
         <f t="shared" ref="B17:B30" si="2">J17</f>
         <v>IMPDSL1</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10" t="str">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="str">
         <f t="shared" ref="D17:D23" si="3">C2</f>
         <v>DSL</v>
       </c>
-      <c r="E17" s="59">
+      <c r="E17" s="49">
         <f>Pri_OIL!$F$14*1.3</f>
         <v>10.4</v>
       </c>
-      <c r="F17" s="54"/>
-      <c r="H17" s="112" t="str">
+      <c r="F17" s="44"/>
+      <c r="H17" s="99" t="str">
         <f>'EB1'!$B$6</f>
         <v>IMP</v>
       </c>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112" t="str">
+      <c r="I17" s="99"/>
+      <c r="J17" s="99" t="str">
         <f t="shared" ref="J17:J23" si="4">$H$17&amp;C2&amp;1</f>
         <v>IMPDSL1</v>
       </c>
-      <c r="K17" s="115" t="str">
+      <c r="K17" s="101" t="str">
         <f t="shared" ref="K17:K23" si="5">"Import of "&amp;D2&amp; " Step "&amp;RIGHT(J17,1)</f>
         <v>Import of Diesel oil Step 1</v>
       </c>
-      <c r="L17" s="112" t="str">
+      <c r="L17" s="99" t="str">
         <f t="shared" ref="L17:L30" si="6">$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M17" s="112"/>
-      <c r="N17" s="112"/>
-      <c r="O17" s="112"/>
-      <c r="P17" s="112"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-    </row>
-    <row r="18" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="10" t="str">
+      <c r="M17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="99"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="str">
         <f t="shared" si="2"/>
         <v>IMPKER1</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10" t="str">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="str">
         <f t="shared" si="3"/>
         <v>KER</v>
       </c>
-      <c r="E18" s="59">
+      <c r="E18" s="49">
         <f>Pri_OIL!$F$14*1.4</f>
         <v>11.2</v>
       </c>
-      <c r="F18" s="54"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="112" t="str">
+      <c r="F18" s="44"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="99" t="str">
         <f t="shared" si="4"/>
         <v>IMPKER1</v>
       </c>
-      <c r="K18" s="115" t="str">
+      <c r="K18" s="101" t="str">
         <f t="shared" si="5"/>
         <v>Import of Kerosenes Step 1</v>
       </c>
-      <c r="L18" s="112" t="str">
+      <c r="L18" s="99" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M18" s="112"/>
-      <c r="N18" s="112"/>
-      <c r="O18" s="112"/>
-      <c r="P18" s="112"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="99"/>
       <c r="T18" s="1"/>
-      <c r="U18"/>
-      <c r="V18"/>
-    </row>
-    <row r="19" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="10" t="str">
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="str">
         <f t="shared" si="2"/>
         <v>IMPLPG1</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10" t="str">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="str">
         <f t="shared" si="3"/>
         <v>LPG</v>
       </c>
-      <c r="E19" s="59">
+      <c r="E19" s="49">
         <f>Pri_OIL!$F$14*1.1</f>
         <v>8.8000000000000007</v>
       </c>
-      <c r="F19" s="54"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="112" t="str">
+      <c r="F19" s="44"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99" t="str">
         <f t="shared" si="4"/>
         <v>IMPLPG1</v>
       </c>
-      <c r="K19" s="115" t="str">
+      <c r="K19" s="101" t="str">
         <f t="shared" si="5"/>
         <v>Import of LPG Step 1</v>
       </c>
-      <c r="L19" s="112" t="str">
+      <c r="L19" s="99" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M19" s="112"/>
-      <c r="N19" s="112"/>
-      <c r="O19" s="112"/>
-      <c r="P19" s="112"/>
-      <c r="T19"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
     </row>
-    <row r="20" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="10" t="str">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="str">
         <f t="shared" si="2"/>
         <v>IMPGSL1</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10" t="str">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="str">
         <f t="shared" si="3"/>
         <v>GSL</v>
       </c>
-      <c r="E20" s="59">
+      <c r="E20" s="49">
         <f>Pri_OIL!$F$14*1.4</f>
         <v>11.2</v>
       </c>
-      <c r="F20" s="54"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112" t="str">
+      <c r="F20" s="44"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99" t="str">
         <f t="shared" si="4"/>
         <v>IMPGSL1</v>
       </c>
-      <c r="K20" s="115" t="str">
+      <c r="K20" s="101" t="str">
         <f t="shared" si="5"/>
         <v>Import of Motor spirit Step 1</v>
       </c>
-      <c r="L20" s="112" t="str">
+      <c r="L20" s="99" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M20" s="112"/>
-      <c r="N20" s="112"/>
-      <c r="O20" s="112"/>
-      <c r="P20" s="112"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-    </row>
-    <row r="21" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="10" t="str">
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="99"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="str">
         <f t="shared" si="2"/>
         <v>IMPNAP1</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10" t="str">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="str">
         <f t="shared" si="3"/>
         <v>NAP</v>
       </c>
-      <c r="E21" s="59">
+      <c r="E21" s="49">
         <f>Pri_OIL!$F$14*1.05</f>
         <v>8.4</v>
       </c>
-      <c r="F21" s="54"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112" t="str">
+      <c r="F21" s="44"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99" t="str">
         <f t="shared" si="4"/>
         <v>IMPNAP1</v>
       </c>
-      <c r="K21" s="115" t="str">
+      <c r="K21" s="101" t="str">
         <f t="shared" si="5"/>
         <v>Import of Naphtha Step 1</v>
       </c>
-      <c r="L21" s="112" t="str">
+      <c r="L21" s="99" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M21" s="112"/>
-      <c r="N21" s="112"/>
-      <c r="O21" s="112"/>
-      <c r="P21" s="112"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
-    </row>
-    <row r="22" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="10" t="str">
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="99"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="str">
         <f t="shared" si="2"/>
         <v>IMPHFO1</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10" t="str">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="str">
         <f t="shared" si="3"/>
         <v>HFO</v>
       </c>
-      <c r="E22" s="59">
+      <c r="E22" s="49">
         <f>Pri_OIL!$F$14*1.05</f>
         <v>8.4</v>
       </c>
-      <c r="F22" s="54"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="112" t="str">
+      <c r="F22" s="44"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99" t="str">
         <f t="shared" si="4"/>
         <v>IMPHFO1</v>
       </c>
-      <c r="K22" s="115" t="str">
+      <c r="K22" s="101" t="str">
         <f t="shared" si="5"/>
         <v>Import of Heavy Fuel Oil Step 1</v>
       </c>
-      <c r="L22" s="112" t="str">
+      <c r="L22" s="99" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M22" s="112"/>
-      <c r="N22" s="112"/>
-      <c r="O22" s="112"/>
-      <c r="P22" s="112"/>
-      <c r="S22"/>
-      <c r="T22"/>
-      <c r="U22"/>
-      <c r="V22"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="99"/>
+      <c r="P22" s="99"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B23" s="10" t="str">
+      <c r="B23" s="1" t="str">
         <f t="shared" si="2"/>
         <v>IMPOPP1</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10" t="str">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="str">
         <f t="shared" si="3"/>
         <v>OPP</v>
       </c>
-      <c r="E23" s="59">
+      <c r="E23" s="49">
         <f>Pri_OIL!$F$14*1.05</f>
         <v>8.4</v>
       </c>
-      <c r="F23" s="54"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="112" t="str">
+      <c r="F23" s="44"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="99" t="str">
         <f t="shared" si="4"/>
         <v>IMPOPP1</v>
       </c>
-      <c r="K23" s="115" t="str">
+      <c r="K23" s="101" t="str">
         <f t="shared" si="5"/>
         <v>Import of Other Petroleum Products Step 1</v>
       </c>
-      <c r="L23" s="112" t="str">
+      <c r="L23" s="99" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M23" s="112"/>
-      <c r="N23" s="112"/>
-      <c r="O23" s="112"/>
-      <c r="P23" s="112"/>
-      <c r="Q23" s="5"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="99"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B24" s="10" t="str">
+      <c r="B24" s="1" t="str">
         <f t="shared" si="2"/>
         <v>EXPDSL1</v>
       </c>
-      <c r="C24" s="10" t="str">
+      <c r="C24" s="1" t="str">
         <f t="shared" ref="C24:C30" si="7">C2</f>
         <v>DSL</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="59">
+      <c r="D24" s="1"/>
+      <c r="E24" s="49">
         <f>E17*0.99</f>
         <v>10.295999999999999</v>
       </c>
-      <c r="F24" s="54">
+      <c r="F24" s="44">
         <f>-'EB1'!G$7</f>
         <v>1683.1424999999999</v>
       </c>
-      <c r="H24" s="112" t="str">
+      <c r="H24" s="99" t="str">
         <f>'EB1'!B7</f>
         <v>EXP</v>
       </c>
-      <c r="I24" s="113"/>
-      <c r="J24" s="112" t="str">
+      <c r="I24" s="99"/>
+      <c r="J24" s="99" t="str">
         <f t="shared" ref="J24:J30" si="8">$H$24&amp;C2&amp;1</f>
         <v>EXPDSL1</v>
       </c>
-      <c r="K24" s="115" t="str">
+      <c r="K24" s="101" t="str">
         <f t="shared" ref="K24:K30" si="9">"Export of "&amp;D2&amp; " Step "&amp;RIGHT(J24,1)</f>
         <v>Export of Diesel oil Step 1</v>
       </c>
-      <c r="L24" s="112" t="str">
+      <c r="L24" s="99" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M24" s="112"/>
-      <c r="N24" s="113"/>
-      <c r="O24" s="112"/>
-      <c r="P24" s="112"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B25" s="10" t="str">
+      <c r="B25" s="1" t="str">
         <f t="shared" si="2"/>
         <v>EXPKER1</v>
       </c>
-      <c r="C25" s="10" t="str">
+      <c r="C25" s="1" t="str">
         <f t="shared" si="7"/>
         <v>KER</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="59">
+      <c r="D25" s="1"/>
+      <c r="E25" s="49">
         <f t="shared" ref="E25:E30" si="10">E18*0.99</f>
         <v>11.087999999999999</v>
       </c>
-      <c r="F25" s="54">
+      <c r="F25" s="44">
         <f>-'EB1'!H$7</f>
         <v>295.38850000000002</v>
       </c>
-      <c r="H25" s="113"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="112" t="str">
+      <c r="H25" s="99"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="99" t="str">
         <f t="shared" si="8"/>
         <v>EXPKER1</v>
       </c>
-      <c r="K25" s="115" t="str">
+      <c r="K25" s="101" t="str">
         <f t="shared" si="9"/>
         <v>Export of Kerosenes Step 1</v>
       </c>
-      <c r="L25" s="112" t="str">
+      <c r="L25" s="99" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M25" s="112"/>
-      <c r="N25" s="113"/>
-      <c r="O25" s="112"/>
-      <c r="P25" s="112"/>
-      <c r="Q25" s="5"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="99"/>
       <c r="R25" s="1"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B26" s="10" t="str">
+      <c r="B26" s="1" t="str">
         <f t="shared" si="2"/>
         <v>EXPLPG1</v>
       </c>
-      <c r="C26" s="10" t="str">
+      <c r="C26" s="1" t="str">
         <f t="shared" si="7"/>
         <v>LPG</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="59">
+      <c r="D26" s="1"/>
+      <c r="E26" s="49">
         <f t="shared" si="10"/>
         <v>8.7119999999999997</v>
       </c>
-      <c r="F26" s="54">
+      <c r="F26" s="44">
         <f>-'EB1'!I$7</f>
         <v>194.51650000000001</v>
       </c>
-      <c r="H26" s="112"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="112" t="str">
+      <c r="H26" s="99"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="99" t="str">
         <f t="shared" si="8"/>
         <v>EXPLPG1</v>
       </c>
-      <c r="K26" s="115" t="str">
+      <c r="K26" s="101" t="str">
         <f t="shared" si="9"/>
         <v>Export of LPG Step 1</v>
       </c>
-      <c r="L26" s="112" t="str">
+      <c r="L26" s="99" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M26" s="112"/>
-      <c r="N26" s="112"/>
-      <c r="O26" s="112"/>
-      <c r="P26" s="112"/>
-      <c r="Q26" s="5"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B27" s="10" t="str">
+      <c r="B27" s="1" t="str">
         <f t="shared" si="2"/>
         <v>EXPGSL1</v>
       </c>
-      <c r="C27" s="10" t="str">
+      <c r="C27" s="1" t="str">
         <f t="shared" si="7"/>
         <v>GSL</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="59">
+      <c r="D27" s="1"/>
+      <c r="E27" s="49">
         <f t="shared" si="10"/>
         <v>11.087999999999999</v>
       </c>
-      <c r="F27" s="54">
+      <c r="F27" s="44">
         <f>-'EB1'!J$7</f>
         <v>1500.6420000000001</v>
       </c>
-      <c r="H27" s="112"/>
-      <c r="I27" s="112"/>
-      <c r="J27" s="112" t="str">
+      <c r="H27" s="99"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="99" t="str">
         <f t="shared" si="8"/>
         <v>EXPGSL1</v>
       </c>
-      <c r="K27" s="115" t="str">
+      <c r="K27" s="101" t="str">
         <f t="shared" si="9"/>
         <v>Export of Motor spirit Step 1</v>
       </c>
-      <c r="L27" s="112" t="str">
+      <c r="L27" s="99" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M27" s="112"/>
-      <c r="N27" s="112"/>
-      <c r="O27" s="112"/>
-      <c r="P27" s="112"/>
-      <c r="Q27" s="5"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="99"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B28" s="10" t="str">
+      <c r="B28" s="1" t="str">
         <f t="shared" si="2"/>
         <v>EXPNAP1</v>
       </c>
-      <c r="C28" s="10" t="str">
+      <c r="C28" s="1" t="str">
         <f t="shared" si="7"/>
         <v>NAP</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="59">
+      <c r="D28" s="1"/>
+      <c r="E28" s="49">
         <f t="shared" si="10"/>
         <v>8.3160000000000007</v>
       </c>
-      <c r="F28" s="54">
+      <c r="F28" s="44">
         <f>-'EB1'!K$7</f>
         <v>400.84</v>
       </c>
-      <c r="H28" s="113"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="112" t="str">
+      <c r="H28" s="99"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="99" t="str">
         <f t="shared" si="8"/>
         <v>EXPNAP1</v>
       </c>
-      <c r="K28" s="115" t="str">
+      <c r="K28" s="101" t="str">
         <f t="shared" si="9"/>
         <v>Export of Naphtha Step 1</v>
       </c>
-      <c r="L28" s="112" t="str">
+      <c r="L28" s="99" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M28" s="112"/>
-      <c r="N28" s="113"/>
-      <c r="O28" s="113"/>
-      <c r="P28" s="113"/>
-      <c r="Q28" s="5"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="99"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B29" s="10" t="str">
+      <c r="B29" s="1" t="str">
         <f t="shared" si="2"/>
         <v>EXPHFO1</v>
       </c>
-      <c r="C29" s="10" t="str">
+      <c r="C29" s="1" t="str">
         <f t="shared" si="7"/>
         <v>HFO</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="59">
+      <c r="D29" s="1"/>
+      <c r="E29" s="49">
         <f t="shared" si="10"/>
         <v>8.3160000000000007</v>
       </c>
-      <c r="F29" s="54">
+      <c r="F29" s="44">
         <f>-'EB1'!L$7</f>
         <v>1239.28</v>
       </c>
-      <c r="H29" s="113"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="112" t="str">
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99" t="str">
         <f t="shared" si="8"/>
         <v>EXPHFO1</v>
       </c>
-      <c r="K29" s="115" t="str">
+      <c r="K29" s="101" t="str">
         <f t="shared" si="9"/>
         <v>Export of Heavy Fuel Oil Step 1</v>
       </c>
-      <c r="L29" s="112" t="str">
+      <c r="L29" s="99" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M29" s="112"/>
-      <c r="N29" s="113"/>
-      <c r="O29" s="113"/>
-      <c r="P29" s="113"/>
+      <c r="M29" s="99"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="99"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B30" s="10" t="str">
+      <c r="B30" s="1" t="str">
         <f t="shared" si="2"/>
         <v>EXPOPP1</v>
       </c>
-      <c r="C30" s="10" t="str">
+      <c r="C30" s="1" t="str">
         <f t="shared" si="7"/>
         <v>OPP</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="59">
+      <c r="D30" s="1"/>
+      <c r="E30" s="49">
         <f t="shared" si="10"/>
         <v>8.3160000000000007</v>
       </c>
-      <c r="F30" s="54">
+      <c r="F30" s="44">
         <f>-'EB1'!M$7</f>
         <v>453.036</v>
       </c>
-      <c r="H30" s="113"/>
-      <c r="I30" s="113"/>
-      <c r="J30" s="112" t="str">
+      <c r="H30" s="99"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99" t="str">
         <f t="shared" si="8"/>
         <v>EXPOPP1</v>
       </c>
-      <c r="K30" s="115" t="str">
+      <c r="K30" s="101" t="str">
         <f t="shared" si="9"/>
         <v>Export of Other Petroleum Products Step 1</v>
       </c>
-      <c r="L30" s="112" t="str">
+      <c r="L30" s="99" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M30" s="113"/>
-      <c r="N30" s="113"/>
-      <c r="O30" s="113"/>
-      <c r="P30" s="113"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="99"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="48"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B36" s="56"/>
+      <c r="B36" s="46"/>
       <c r="C36" s="1" t="s">
         <v>116</v>
       </c>
@@ -17904,7 +16838,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="B1:V22"/>
+  <dimension ref="B1:S22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:G65536"/>
@@ -17930,441 +16864,364 @@
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="14" t="str">
+      <c r="C2" s="9" t="str">
         <f>'EB1'!U$2</f>
         <v>ELC</v>
       </c>
-      <c r="D2" s="14" t="str">
+      <c r="D2" s="9" t="str">
         <f>'EB1'!U$3</f>
         <v>Electricity</v>
       </c>
-      <c r="E2" s="14" t="str">
+      <c r="E2" s="9" t="str">
         <f>'EB1'!$Z$2</f>
         <v>PJ</v>
       </c>
-      <c r="F2" s="14" t="str">
+      <c r="F2" s="9" t="str">
         <f>'EB1'!Y2</f>
         <v>M€2005</v>
       </c>
-      <c r="H2" s="106" t="s">
+      <c r="H2" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="106"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-    </row>
-    <row r="3" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="H3" s="108" t="s">
+      <c r="I2" s="94"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+    </row>
+    <row r="3" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="H3" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="109" t="s">
+      <c r="I3" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="108" t="s">
+      <c r="J3" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="108" t="s">
+      <c r="K3" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="108" t="s">
+      <c r="L3" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="108" t="s">
+      <c r="M3" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="108" t="s">
+      <c r="N3" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="108" t="s">
+      <c r="O3" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="108" t="s">
+      <c r="P3" s="96" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="H4" s="110" t="s">
+    <row r="4" spans="2:19" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="H4" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="110" t="s">
+      <c r="I4" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="110" t="s">
+      <c r="J4" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="110" t="s">
+      <c r="K4" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="110" t="s">
+      <c r="L4" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="110" t="s">
+      <c r="M4" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="110" t="s">
+      <c r="N4" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="110" t="s">
+      <c r="O4" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="110" t="s">
+      <c r="P4" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-    </row>
-    <row r="5" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-    </row>
-    <row r="6" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-    </row>
-    <row r="7" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-    </row>
-    <row r="8" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-    </row>
-    <row r="9" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-    </row>
-    <row r="10" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="H5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="H6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="H11" s="106" t="s">
+      <c r="H11" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="106"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="113"/>
-      <c r="M11" s="113"/>
-      <c r="N11" s="113"/>
-      <c r="O11" s="113"/>
-      <c r="P11" s="113"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="I11" s="94"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="66" t="s">
+      <c r="E12" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="108" t="s">
+      <c r="H12" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="109" t="s">
+      <c r="I12" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="108" t="s">
+      <c r="J12" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="108" t="s">
+      <c r="K12" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="L12" s="108" t="s">
+      <c r="L12" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="108" t="s">
+      <c r="M12" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="108" t="s">
+      <c r="N12" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="108" t="s">
+      <c r="O12" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="108" t="s">
+      <c r="P12" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-    </row>
-    <row r="13" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+    </row>
+    <row r="13" spans="2:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="110" t="s">
+      <c r="H13" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="110" t="s">
+      <c r="I13" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="110" t="s">
+      <c r="J13" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="110" t="s">
+      <c r="K13" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="110" t="s">
+      <c r="L13" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="110" t="s">
+      <c r="M13" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="110" t="s">
+      <c r="N13" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="O13" s="110" t="s">
+      <c r="O13" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="110" t="s">
+      <c r="P13" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-    </row>
-    <row r="14" spans="2:22" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
+    </row>
+    <row r="14" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17" t="str">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11" t="str">
         <f>$F$2&amp;"/"&amp;$E$2</f>
         <v>M€2005/PJ</v>
       </c>
-      <c r="F14" s="17" t="str">
+      <c r="F14" s="11" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="H14" s="110" t="s">
+      <c r="H14" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="110"/>
-      <c r="O14" s="110"/>
-      <c r="P14" s="110"/>
-      <c r="Q14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-    </row>
-    <row r="15" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="10" t="str">
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="str">
         <f>J15</f>
         <v>IMPELC1</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10" t="str">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="str">
         <f>C2</f>
         <v>ELC</v>
       </c>
-      <c r="E15" s="59">
+      <c r="E15" s="49">
         <f>Pri_GAS!F12*1.3</f>
         <v>5.3819999999999997</v>
       </c>
-      <c r="F15" s="54">
+      <c r="F15" s="44">
         <f>'EB1'!U6</f>
         <v>583.76</v>
       </c>
-      <c r="H15" s="112" t="str">
+      <c r="H15" s="99" t="str">
         <f>'EB1'!$B$6</f>
         <v>IMP</v>
       </c>
-      <c r="I15" s="112"/>
-      <c r="J15" s="112" t="str">
+      <c r="I15" s="99"/>
+      <c r="J15" s="99" t="str">
         <f>$H$15&amp;C2&amp;1</f>
         <v>IMPELC1</v>
       </c>
-      <c r="K15" s="115" t="str">
+      <c r="K15" s="101" t="str">
         <f>"Import of "&amp;D2&amp; " Step "&amp;RIGHT(J15,1)</f>
         <v>Import of Electricity Step 1</v>
       </c>
-      <c r="L15" s="112" t="str">
+      <c r="L15" s="99" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M15" s="112"/>
-      <c r="N15" s="111" t="s">
+      <c r="M15" s="99"/>
+      <c r="N15" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="O15" s="112"/>
-      <c r="P15" s="112"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B16" s="10" t="str">
+      <c r="O15" s="99"/>
+      <c r="P15" s="99"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="str">
         <f>J16</f>
         <v>EXPELC1</v>
       </c>
-      <c r="C16" s="10" t="str">
+      <c r="C16" s="1" t="str">
         <f>C2</f>
         <v>ELC</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="59">
+      <c r="D16" s="1"/>
+      <c r="E16" s="49">
         <v>6</v>
       </c>
-      <c r="F16" s="54">
+      <c r="F16" s="44">
         <f>-'EB1'!U$7</f>
         <v>563.40200000000004</v>
       </c>
-      <c r="H16" s="112" t="str">
+      <c r="H16" s="99" t="str">
         <f>'EB1'!B7</f>
         <v>EXP</v>
       </c>
-      <c r="I16" s="113"/>
-      <c r="J16" s="112" t="str">
+      <c r="I16" s="99"/>
+      <c r="J16" s="99" t="str">
         <f>$H$16&amp;C2&amp;1</f>
         <v>EXPELC1</v>
       </c>
-      <c r="K16" s="115" t="str">
+      <c r="K16" s="101" t="str">
         <f>"Export of "&amp;D2&amp; " Step "&amp;RIGHT(J16,1)</f>
         <v>Export of Electricity Step 1</v>
       </c>
-      <c r="L16" s="112" t="str">
+      <c r="L16" s="99" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M16" s="112"/>
-      <c r="N16" s="111" t="s">
+      <c r="M16" s="99"/>
+      <c r="N16" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="O16" s="112"/>
-      <c r="P16" s="112"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="99"/>
       <c r="S16" s="1"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="48"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="56"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="1" t="s">
         <v>116</v>
       </c>
